--- a/trilateration/triangulacionLogD.xlsx
+++ b/trilateration/triangulacionLogD.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,37 +490,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.76335837605646</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="D2" t="n">
-        <v>15.58927753632791</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>30.23664162394354</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="H2" t="n">
-        <v>26.58927753632791</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="I2" t="n">
-        <v>914.2544966947949</v>
+        <v>65.632462316417</v>
       </c>
       <c r="J2" t="n">
-        <v>706.9896799038721</v>
+        <v>65.632462316417</v>
       </c>
       <c r="K2" t="n">
-        <v>40.26467653662037</v>
+        <v>11.45709058325167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 14:58:11 GMT-5</t>
+          <t>mié 02 dic 2020, 14:59:11 GMT-5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -529,37 +529,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11.79519798295662</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.115552354074641</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>36.20480201704338</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="H3" t="n">
-        <v>4.884447645925359</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="I3" t="n">
-        <v>1310.787689093309</v>
+        <v>65.632462316417</v>
       </c>
       <c r="J3" t="n">
-        <v>23.85782880578578</v>
+        <v>65.632462316417</v>
       </c>
       <c r="K3" t="n">
-        <v>36.5328005756347</v>
+        <v>11.45709058325167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 14:58:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:00:11 GMT-5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -568,37 +568,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.58927753632791</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="D4" t="n">
-        <v>17.76335837605646</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>32.41072246367209</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="H4" t="n">
-        <v>28.76335837605646</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="I4" t="n">
-        <v>1050.454930617179</v>
+        <v>65.632462316417</v>
       </c>
       <c r="J4" t="n">
-        <v>827.3307850694573</v>
+        <v>65.632462316417</v>
       </c>
       <c r="K4" t="n">
-        <v>43.3334249244926</v>
+        <v>11.45709058325167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 14:58:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:01:11 GMT-5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -607,37 +607,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-6.11555235407464</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="D5" t="n">
-        <v>11.79519798295662</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>54.11555235407464</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="H5" t="n">
-        <v>22.79519798295662</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="I5" t="n">
-        <v>2928.493006586593</v>
+        <v>65.632462316417</v>
       </c>
       <c r="J5" t="n">
-        <v>519.6210510821894</v>
+        <v>65.632462316417</v>
       </c>
       <c r="K5" t="n">
-        <v>58.72064422048503</v>
+        <v>11.45709058325167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 14:59:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:08:11 GMT-5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -646,37 +646,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.58927753632791</v>
+        <v>48.72715090313213</v>
       </c>
       <c r="D6" t="n">
-        <v>17.76335837605646</v>
+        <v>48.72715090313213</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>32.41072246367209</v>
+        <v>8.727150903132127</v>
       </c>
       <c r="H6" t="n">
-        <v>28.76335837605646</v>
+        <v>8.727150903132127</v>
       </c>
       <c r="I6" t="n">
-        <v>1050.454930617179</v>
+        <v>76.1631628860399</v>
       </c>
       <c r="J6" t="n">
-        <v>827.3307850694573</v>
+        <v>76.1631628860399</v>
       </c>
       <c r="K6" t="n">
-        <v>43.3334249244926</v>
+        <v>12.34205516808606</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 14:59:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:39:11 GMT-5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -685,37 +685,37 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17.76335837605646</v>
+        <v>62.36381786288057</v>
       </c>
       <c r="D7" t="n">
-        <v>15.58927753632791</v>
+        <v>62.36381786288057</v>
       </c>
       <c r="E7" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
-        <v>30.23664162394354</v>
+        <v>22.36381786288057</v>
       </c>
       <c r="H7" t="n">
-        <v>26.58927753632791</v>
+        <v>22.36381786288057</v>
       </c>
       <c r="I7" t="n">
-        <v>914.2544966947949</v>
+        <v>500.1403494040959</v>
       </c>
       <c r="J7" t="n">
-        <v>706.9896799038721</v>
+        <v>500.1403494040959</v>
       </c>
       <c r="K7" t="n">
-        <v>40.26467653662037</v>
+        <v>31.62721452812738</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 14:59:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:40:11 GMT-5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -724,37 +724,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11.79519798295662</v>
+        <v>62.36381786288057</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.115552354074641</v>
+        <v>62.36381786288057</v>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>36.20480201704338</v>
+        <v>22.36381786288057</v>
       </c>
       <c r="H8" t="n">
-        <v>4.884447645925359</v>
+        <v>22.36381786288057</v>
       </c>
       <c r="I8" t="n">
-        <v>1310.787689093309</v>
+        <v>500.1403494040959</v>
       </c>
       <c r="J8" t="n">
-        <v>23.85782880578578</v>
+        <v>500.1403494040959</v>
       </c>
       <c r="K8" t="n">
-        <v>36.5328005756347</v>
+        <v>31.62721452812738</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 14:59:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:41:11 GMT-5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -763,37 +763,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.11555235407464</v>
+        <v>65.61340278115887</v>
       </c>
       <c r="D9" t="n">
-        <v>11.79519798295662</v>
+        <v>65.61340278115888</v>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F9" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>54.11555235407464</v>
+        <v>25.61340278115887</v>
       </c>
       <c r="H9" t="n">
-        <v>22.79519798295662</v>
+        <v>25.61340278115888</v>
       </c>
       <c r="I9" t="n">
-        <v>2928.493006586593</v>
+        <v>656.0464020298768</v>
       </c>
       <c r="J9" t="n">
-        <v>519.6210510821894</v>
+        <v>656.0464020298775</v>
       </c>
       <c r="K9" t="n">
-        <v>58.72064422048503</v>
+        <v>36.22282159163963</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:00:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:42:11 GMT-5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -802,37 +802,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.71679938852439</v>
+        <v>65.61340278115887</v>
       </c>
       <c r="D10" t="n">
-        <v>15.38105742952996</v>
+        <v>65.61340278115888</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>30.28320061147561</v>
+        <v>25.61340278115887</v>
       </c>
       <c r="H10" t="n">
-        <v>26.38105742952996</v>
+        <v>25.61340278115888</v>
       </c>
       <c r="I10" t="n">
-        <v>917.0722392748768</v>
+        <v>656.0464020298768</v>
       </c>
       <c r="J10" t="n">
-        <v>695.9601911001578</v>
+        <v>656.0464020298775</v>
       </c>
       <c r="K10" t="n">
-        <v>40.16257499681805</v>
+        <v>36.22282159163963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:00:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:43:11 GMT-5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -841,37 +841,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11.79519798295662</v>
+        <v>61.86374843559684</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.115552354074641</v>
+        <v>61.86374843559684</v>
       </c>
       <c r="E11" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G11" t="n">
-        <v>36.20480201704338</v>
+        <v>21.86374843559684</v>
       </c>
       <c r="H11" t="n">
-        <v>4.884447645925359</v>
+        <v>21.86374843559684</v>
       </c>
       <c r="I11" t="n">
-        <v>1310.787689093309</v>
+        <v>478.0234956550632</v>
       </c>
       <c r="J11" t="n">
-        <v>23.85782880578578</v>
+        <v>478.0234956550632</v>
       </c>
       <c r="K11" t="n">
-        <v>36.5328005756347</v>
+        <v>30.92000956193459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:00:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:44:11 GMT-5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -880,37 +880,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15.38105742952996</v>
+        <v>61.86374843559684</v>
       </c>
       <c r="D12" t="n">
-        <v>17.71679938852439</v>
+        <v>61.86374843559684</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>32.61894257047004</v>
+        <v>21.86374843559684</v>
       </c>
       <c r="H12" t="n">
-        <v>28.71679938852439</v>
+        <v>21.86374843559684</v>
       </c>
       <c r="I12" t="n">
-        <v>1063.995414415623</v>
+        <v>478.0234956550632</v>
       </c>
       <c r="J12" t="n">
-        <v>824.6545671207549</v>
+        <v>478.0234956550632</v>
       </c>
       <c r="K12" t="n">
-        <v>43.45860077747992</v>
+        <v>30.92000956193459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:00:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:45:11 GMT-5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -919,37 +919,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-6.11555235407464</v>
+        <v>56.83537143895128</v>
       </c>
       <c r="D13" t="n">
-        <v>11.79519798295662</v>
+        <v>56.83537143895128</v>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
-        <v>54.11555235407464</v>
+        <v>16.83537143895128</v>
       </c>
       <c r="H13" t="n">
-        <v>22.79519798295662</v>
+        <v>16.83537143895128</v>
       </c>
       <c r="I13" t="n">
-        <v>2928.493006586593</v>
+        <v>283.4297314874566</v>
       </c>
       <c r="J13" t="n">
-        <v>519.6210510821894</v>
+        <v>283.4297314874566</v>
       </c>
       <c r="K13" t="n">
-        <v>58.72064422048503</v>
+        <v>23.80881061655355</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:01:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:46:11 GMT-5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -958,37 +958,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.58927753632791</v>
+        <v>56.83537143895128</v>
       </c>
       <c r="D14" t="n">
-        <v>17.76335837605646</v>
+        <v>56.83537143895128</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G14" t="n">
-        <v>32.41072246367209</v>
+        <v>16.83537143895128</v>
       </c>
       <c r="H14" t="n">
-        <v>28.76335837605646</v>
+        <v>16.83537143895128</v>
       </c>
       <c r="I14" t="n">
-        <v>1050.454930617179</v>
+        <v>283.4297314874566</v>
       </c>
       <c r="J14" t="n">
-        <v>827.3307850694573</v>
+        <v>283.4297314874566</v>
       </c>
       <c r="K14" t="n">
-        <v>43.3334249244926</v>
+        <v>23.80881061655355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:01:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:04:11 GMT-5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -997,37 +997,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17.76335837605646</v>
+        <v>53.36392729052783</v>
       </c>
       <c r="D15" t="n">
-        <v>15.58927753632791</v>
+        <v>53.36392729052783</v>
       </c>
       <c r="E15" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>30.23664162394354</v>
+        <v>13.36392729052783</v>
       </c>
       <c r="H15" t="n">
-        <v>26.58927753632791</v>
+        <v>13.36392729052783</v>
       </c>
       <c r="I15" t="n">
-        <v>914.2544966947949</v>
+        <v>178.5945526265146</v>
       </c>
       <c r="J15" t="n">
-        <v>706.9896799038721</v>
+        <v>178.5945526265144</v>
       </c>
       <c r="K15" t="n">
-        <v>40.26467653662037</v>
+        <v>18.89944722083239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:01:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:05:11 GMT-5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1036,37 +1036,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11.79519798295662</v>
+        <v>45.20430774325964</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.115552354074641</v>
+        <v>45.20430774325964</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F16" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>36.20480201704338</v>
+        <v>5.204307743259641</v>
       </c>
       <c r="H16" t="n">
-        <v>4.884447645925359</v>
+        <v>5.204307743259641</v>
       </c>
       <c r="I16" t="n">
-        <v>1310.787689093309</v>
+        <v>27.08481908655225</v>
       </c>
       <c r="J16" t="n">
-        <v>23.85782880578578</v>
+        <v>27.08481908655225</v>
       </c>
       <c r="K16" t="n">
-        <v>36.5328005756347</v>
+        <v>7.360002593281099</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:01:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:30:17 GMT-5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1075,37 +1075,37 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-6.11555235407464</v>
+        <v>51.54769953543048</v>
       </c>
       <c r="D17" t="n">
-        <v>11.79519798295662</v>
+        <v>51.54769953543048</v>
       </c>
       <c r="E17" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F17" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>54.11555235407464</v>
+        <v>11.54769953543048</v>
       </c>
       <c r="H17" t="n">
-        <v>22.79519798295662</v>
+        <v>11.54769953543048</v>
       </c>
       <c r="I17" t="n">
-        <v>2928.493006586593</v>
+        <v>133.3493645605814</v>
       </c>
       <c r="J17" t="n">
-        <v>519.6210510821894</v>
+        <v>133.3493645605814</v>
       </c>
       <c r="K17" t="n">
-        <v>58.72064422048503</v>
+        <v>16.33091329721528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:08:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:52:17 GMT-5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1114,37 +1114,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14.77230591963416</v>
+        <v>48.72715090313213</v>
       </c>
       <c r="D18" t="n">
-        <v>17.22246336177151</v>
+        <v>48.72715090313213</v>
       </c>
       <c r="E18" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F18" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>33.22769408036584</v>
+        <v>8.727150903132127</v>
       </c>
       <c r="H18" t="n">
-        <v>28.22246336177151</v>
+        <v>8.727150903132127</v>
       </c>
       <c r="I18" t="n">
-        <v>1104.079653898379</v>
+        <v>76.1631628860399</v>
       </c>
       <c r="J18" t="n">
-        <v>796.5074382065354</v>
+        <v>76.1631628860399</v>
       </c>
       <c r="K18" t="n">
-        <v>43.59572332356598</v>
+        <v>12.34205516808606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:08:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:53:17 GMT-5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1153,37 +1153,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-6.860024794985257</v>
+        <v>52.27401018224722</v>
       </c>
       <c r="D19" t="n">
-        <v>10.86002479498526</v>
+        <v>52.27401018224722</v>
       </c>
       <c r="E19" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F19" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>54.86002479498526</v>
+        <v>12.27401018224722</v>
       </c>
       <c r="H19" t="n">
-        <v>21.86002479498526</v>
+        <v>12.27401018224722</v>
       </c>
       <c r="I19" t="n">
-        <v>3009.622320506397</v>
+        <v>150.6513259539085</v>
       </c>
       <c r="J19" t="n">
-        <v>477.8606840373702</v>
+        <v>150.6513259539085</v>
       </c>
       <c r="K19" t="n">
-        <v>59.05491515990661</v>
+        <v>17.35807166443949</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:08:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:54:17 GMT-5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1192,1090 +1192,1090 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17.22246336177152</v>
+        <v>52.27401018224722</v>
       </c>
       <c r="D20" t="n">
-        <v>14.77230591963416</v>
+        <v>52.27401018224722</v>
       </c>
       <c r="E20" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F20" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>30.77753663822848</v>
+        <v>12.27401018224722</v>
       </c>
       <c r="H20" t="n">
-        <v>25.77230591963416</v>
+        <v>12.27401018224722</v>
       </c>
       <c r="I20" t="n">
-        <v>947.2567615174967</v>
+        <v>150.6513259539085</v>
       </c>
       <c r="J20" t="n">
-        <v>664.2117524152102</v>
+        <v>150.6513259539085</v>
       </c>
       <c r="K20" t="n">
-        <v>40.14310045241532</v>
+        <v>17.35807166443949</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:08:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:26:09 GMT-5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10.86002479498526</v>
+        <v>47.79216986802565</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.860024794985257</v>
+        <v>47.79216986802565</v>
       </c>
       <c r="E21" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F21" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>37.13997520501474</v>
+        <v>7.792169868025653</v>
       </c>
       <c r="H21" t="n">
-        <v>4.139975205014743</v>
+        <v>7.792169868025653</v>
       </c>
       <c r="I21" t="n">
-        <v>1379.37775822911</v>
+        <v>60.71791125216691</v>
       </c>
       <c r="J21" t="n">
-        <v>17.13939469813686</v>
+        <v>60.71791125216691</v>
       </c>
       <c r="K21" t="n">
-        <v>37.37000338409467</v>
+        <v>11.01979230767685</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:39:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:34:09 GMT-5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6.641834974789766</v>
+        <v>48.12452435303677</v>
       </c>
       <c r="D22" t="n">
-        <v>5.228921755900238</v>
+        <v>48.12452435303677</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F22" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>41.35816502521023</v>
+        <v>8.124524353036769</v>
       </c>
       <c r="H22" t="n">
-        <v>16.22892175590024</v>
+        <v>8.124524353036769</v>
       </c>
       <c r="I22" t="n">
-        <v>1710.497814252523</v>
+        <v>66.00789596308752</v>
       </c>
       <c r="J22" t="n">
-        <v>263.3779013591321</v>
+        <v>66.00789596308752</v>
       </c>
       <c r="K22" t="n">
-        <v>44.42832109827756</v>
+        <v>11.48981252789509</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:39:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:35:09 GMT-5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5.228921755900237</v>
+        <v>48.21693946459904</v>
       </c>
       <c r="D23" t="n">
-        <v>6.641834974789766</v>
+        <v>48.21693946459904</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F23" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>42.77107824409976</v>
+        <v>8.216939464599044</v>
       </c>
       <c r="H23" t="n">
-        <v>17.64183497478977</v>
+        <v>8.216939464599044</v>
       </c>
       <c r="I23" t="n">
-        <v>1829.365134162904</v>
+        <v>67.51809416488521</v>
       </c>
       <c r="J23" t="n">
-        <v>311.2343412777154</v>
+        <v>67.51809416488521</v>
       </c>
       <c r="K23" t="n">
-        <v>46.26661296702644</v>
+        <v>11.62050723203468</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:40:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:42:09 GMT-5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6.641834974789766</v>
+        <v>57.62134228667543</v>
       </c>
       <c r="D24" t="n">
-        <v>5.228921755900238</v>
+        <v>57.62134228667543</v>
       </c>
       <c r="E24" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>41.35816502521023</v>
+        <v>17.62134228667543</v>
       </c>
       <c r="H24" t="n">
-        <v>16.22892175590024</v>
+        <v>17.62134228667543</v>
       </c>
       <c r="I24" t="n">
-        <v>1710.497814252523</v>
+        <v>310.5117039841756</v>
       </c>
       <c r="J24" t="n">
-        <v>263.3779013591321</v>
+        <v>310.5117039841756</v>
       </c>
       <c r="K24" t="n">
-        <v>44.42832109827756</v>
+        <v>24.92034124903492</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:40:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:43:09 GMT-5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.228921755900237</v>
+        <v>57.62134228667543</v>
       </c>
       <c r="D25" t="n">
-        <v>6.641834974789766</v>
+        <v>57.62134228667543</v>
       </c>
       <c r="E25" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F25" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>42.77107824409976</v>
+        <v>17.62134228667543</v>
       </c>
       <c r="H25" t="n">
-        <v>17.64183497478977</v>
+        <v>17.62134228667543</v>
       </c>
       <c r="I25" t="n">
-        <v>1829.365134162904</v>
+        <v>310.5117039841756</v>
       </c>
       <c r="J25" t="n">
-        <v>311.2343412777154</v>
+        <v>310.5117039841756</v>
       </c>
       <c r="K25" t="n">
-        <v>46.26661296702644</v>
+        <v>24.92034124903492</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:41:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:58:09 GMT-5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5.772238413346199</v>
+        <v>62.13563299211259</v>
       </c>
       <c r="D26" t="n">
-        <v>5.917930391512361</v>
+        <v>62.13563299211259</v>
       </c>
       <c r="E26" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F26" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>42.2277615866538</v>
+        <v>22.13563299211259</v>
       </c>
       <c r="H26" t="n">
-        <v>16.91793039151236</v>
+        <v>22.13563299211259</v>
       </c>
       <c r="I26" t="n">
-        <v>1783.183848619274</v>
+        <v>489.9862479615034</v>
       </c>
       <c r="J26" t="n">
-        <v>286.2163687320576</v>
+        <v>489.9862479615034</v>
       </c>
       <c r="K26" t="n">
-        <v>45.49066077066074</v>
+        <v>31.30451238915896</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:41:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:59:09 GMT-5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.917930391512358</v>
+        <v>62.13563299211259</v>
       </c>
       <c r="D27" t="n">
-        <v>5.772238413346204</v>
+        <v>62.13563299211259</v>
       </c>
       <c r="E27" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F27" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>42.08206960848764</v>
+        <v>22.13563299211259</v>
       </c>
       <c r="H27" t="n">
-        <v>16.77223841334621</v>
+        <v>22.13563299211259</v>
       </c>
       <c r="I27" t="n">
-        <v>1770.900582533599</v>
+        <v>489.9862479615034</v>
       </c>
       <c r="J27" t="n">
-        <v>281.307981394126</v>
+        <v>489.9862479615034</v>
       </c>
       <c r="K27" t="n">
-        <v>45.3013086337219</v>
+        <v>31.30451238915896</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:42:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:00:09 GMT-5</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.772238413346199</v>
+        <v>61.76215867009724</v>
       </c>
       <c r="D28" t="n">
-        <v>5.917930391512361</v>
+        <v>61.76215867009724</v>
       </c>
       <c r="E28" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F28" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G28" t="n">
-        <v>42.2277615866538</v>
+        <v>21.76215867009724</v>
       </c>
       <c r="H28" t="n">
-        <v>16.91793039151236</v>
+        <v>21.76215867009724</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.183848619274</v>
+        <v>473.5915499824883</v>
       </c>
       <c r="J28" t="n">
-        <v>286.2163687320576</v>
+        <v>473.5915499824886</v>
       </c>
       <c r="K28" t="n">
-        <v>45.49066077066074</v>
+        <v>30.77633993776675</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:42:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:01:09 GMT-5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.917930391512358</v>
+        <v>61.76215867009724</v>
       </c>
       <c r="D29" t="n">
-        <v>5.772238413346204</v>
+        <v>61.76215867009724</v>
       </c>
       <c r="E29" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F29" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>42.08206960848764</v>
+        <v>21.76215867009724</v>
       </c>
       <c r="H29" t="n">
-        <v>16.77223841334621</v>
+        <v>21.76215867009724</v>
       </c>
       <c r="I29" t="n">
-        <v>1770.900582533599</v>
+        <v>473.5915499824883</v>
       </c>
       <c r="J29" t="n">
-        <v>281.307981394126</v>
+        <v>473.5915499824886</v>
       </c>
       <c r="K29" t="n">
-        <v>45.3013086337219</v>
+        <v>30.77633993776675</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:43:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:02:09 GMT-5</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.474701160366905</v>
+        <v>58.12965027002414</v>
       </c>
       <c r="D30" t="n">
-        <v>4.84451180199876</v>
+        <v>58.12965027002414</v>
       </c>
       <c r="E30" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F30" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>41.52529883963309</v>
+        <v>18.12965027002414</v>
       </c>
       <c r="H30" t="n">
-        <v>15.84451180199876</v>
+        <v>18.12965027002414</v>
       </c>
       <c r="I30" t="n">
-        <v>1724.350443720834</v>
+        <v>328.6842189133862</v>
       </c>
       <c r="J30" t="n">
-        <v>251.048554243678</v>
+        <v>328.6842189133862</v>
       </c>
       <c r="K30" t="n">
-        <v>44.44546093769882</v>
+        <v>25.63919729294918</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:43:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:03:09 GMT-5</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.844511801998761</v>
+        <v>58.12965027002414</v>
       </c>
       <c r="D31" t="n">
-        <v>6.474701160366907</v>
+        <v>58.12965027002414</v>
       </c>
       <c r="E31" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>43.15548819800124</v>
+        <v>18.12965027002414</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47470116036691</v>
+        <v>18.12965027002414</v>
       </c>
       <c r="I31" t="n">
-        <v>1862.396161607824</v>
+        <v>328.6842189133862</v>
       </c>
       <c r="J31" t="n">
-        <v>305.3651806441285</v>
+        <v>328.6842189133862</v>
       </c>
       <c r="K31" t="n">
-        <v>46.55922402974466</v>
+        <v>25.63919729294918</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:44:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:31:09 GMT-5</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.349065446352337</v>
+        <v>25.27199504247042</v>
       </c>
       <c r="D32" t="n">
-        <v>6.244663357466947</v>
+        <v>25.27199504247042</v>
       </c>
       <c r="E32" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F32" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>42.65093455364767</v>
+        <v>14.72800495752958</v>
       </c>
       <c r="H32" t="n">
-        <v>17.24466335746695</v>
+        <v>14.72800495752958</v>
       </c>
       <c r="I32" t="n">
-        <v>1819.102218299536</v>
+        <v>216.914130029016</v>
       </c>
       <c r="J32" t="n">
-        <v>297.3784143123632</v>
+        <v>216.914130029016</v>
       </c>
       <c r="K32" t="n">
-        <v>46.00522397089161</v>
+        <v>20.82854435763652</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:44:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:35:09 GMT-5</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.244663357466945</v>
+        <v>48.21693946459904</v>
       </c>
       <c r="D33" t="n">
-        <v>5.349065446352339</v>
+        <v>48.21693946459904</v>
       </c>
       <c r="E33" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F33" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>41.75533664253305</v>
+        <v>8.216939464599044</v>
       </c>
       <c r="H33" t="n">
-        <v>16.34906544635234</v>
+        <v>8.216939464599044</v>
       </c>
       <c r="I33" t="n">
-        <v>1743.508138131263</v>
+        <v>67.51809416488521</v>
       </c>
       <c r="J33" t="n">
-        <v>267.291940969112</v>
+        <v>67.51809416488521</v>
       </c>
       <c r="K33" t="n">
-        <v>44.84194553206156</v>
+        <v>11.62050723203468</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:44:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:36:09 GMT-5</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.474701160366905</v>
+        <v>48.21693946459904</v>
       </c>
       <c r="D34" t="n">
-        <v>4.84451180199876</v>
+        <v>48.21693946459904</v>
       </c>
       <c r="E34" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F34" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>41.52529883963309</v>
+        <v>8.216939464599044</v>
       </c>
       <c r="H34" t="n">
-        <v>15.84451180199876</v>
+        <v>8.216939464599044</v>
       </c>
       <c r="I34" t="n">
-        <v>1724.350443720834</v>
+        <v>67.51809416488521</v>
       </c>
       <c r="J34" t="n">
-        <v>251.048554243678</v>
+        <v>67.51809416488521</v>
       </c>
       <c r="K34" t="n">
-        <v>44.44546093769882</v>
+        <v>11.62050723203468</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:44:11 GMT-5</t>
+          <t>mié 02 dic 2020, 16:37:09 GMT-5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.844511801998761</v>
+        <v>48.21693946459904</v>
       </c>
       <c r="D35" t="n">
-        <v>6.474701160366907</v>
+        <v>48.21693946459904</v>
       </c>
       <c r="E35" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F35" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>43.15548819800124</v>
+        <v>8.216939464599044</v>
       </c>
       <c r="H35" t="n">
-        <v>17.47470116036691</v>
+        <v>8.216939464599044</v>
       </c>
       <c r="I35" t="n">
-        <v>1862.396161607824</v>
+        <v>67.51809416488521</v>
       </c>
       <c r="J35" t="n">
-        <v>305.3651806441285</v>
+        <v>67.51809416488521</v>
       </c>
       <c r="K35" t="n">
-        <v>46.55922402974466</v>
+        <v>11.62050723203468</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:45:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:34:11 GMT-5</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9.98504342831508</v>
+        <v>69.74220943234099</v>
       </c>
       <c r="D36" t="n">
-        <v>6.585048132133902</v>
+        <v>14.61196230929304</v>
       </c>
       <c r="E36" t="n">
-        <v>48</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>-11</v>
+        <v>13.821</v>
       </c>
       <c r="G36" t="n">
-        <v>38.01495657168492</v>
+        <v>0.7797905676590204</v>
       </c>
       <c r="H36" t="n">
-        <v>17.5850481321339</v>
+        <v>0.790962309293036</v>
       </c>
       <c r="I36" t="n">
-        <v>1445.136923147091</v>
+        <v>0.6080733294099774</v>
       </c>
       <c r="J36" t="n">
-        <v>309.233917809466</v>
+        <v>0.6256213747221724</v>
       </c>
       <c r="K36" t="n">
-        <v>41.88521028903349</v>
+        <v>1.110718102910072</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:45:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:35:11 GMT-5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6.585048132133902</v>
+        <v>72.31591490403824</v>
       </c>
       <c r="D37" t="n">
-        <v>9.98504342831508</v>
+        <v>12.7026810410567</v>
       </c>
       <c r="E37" t="n">
-        <v>48</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>-11</v>
+        <v>13.821</v>
       </c>
       <c r="G37" t="n">
-        <v>41.4149518678661</v>
+        <v>1.793914904038232</v>
       </c>
       <c r="H37" t="n">
-        <v>20.98504342831508</v>
+        <v>1.118318958943304</v>
       </c>
       <c r="I37" t="n">
-        <v>1715.198238217666</v>
+        <v>3.218130682930499</v>
       </c>
       <c r="J37" t="n">
-        <v>440.37204768827</v>
+        <v>1.250637293932035</v>
       </c>
       <c r="K37" t="n">
-        <v>46.42811956030457</v>
+        <v>2.113946067633357</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:45:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:36:11 GMT-5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.943896184105819</v>
+        <v>74.60364424003917</v>
       </c>
       <c r="D38" t="n">
-        <v>4.832990621412938</v>
+        <v>14.88043340981879</v>
       </c>
       <c r="E38" t="n">
-        <v>48</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>-11</v>
+        <v>14.821</v>
       </c>
       <c r="G38" t="n">
-        <v>43.05610381589418</v>
+        <v>4.081644240039168</v>
       </c>
       <c r="H38" t="n">
-        <v>15.83299062141294</v>
+        <v>0.05943340981879253</v>
       </c>
       <c r="I38" t="n">
-        <v>1853.828075805058</v>
+        <v>16.65981970224492</v>
       </c>
       <c r="J38" t="n">
-        <v>250.68359201775</v>
+        <v>0.003532330202688544</v>
       </c>
       <c r="K38" t="n">
-        <v>45.87495686998308</v>
+        <v>4.082076926326549</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:45:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:37:11 GMT-5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.832990621412936</v>
+        <v>56.15433271590297</v>
       </c>
       <c r="D39" t="n">
-        <v>4.943896184105817</v>
+        <v>3.948692184430278</v>
       </c>
       <c r="E39" t="n">
-        <v>48</v>
+        <v>63.721</v>
       </c>
       <c r="F39" t="n">
-        <v>-11</v>
+        <v>4.6333</v>
       </c>
       <c r="G39" t="n">
-        <v>43.16700937858707</v>
+        <v>7.566667284097029</v>
       </c>
       <c r="H39" t="n">
-        <v>15.94389618410582</v>
+        <v>0.6846078155697226</v>
       </c>
       <c r="I39" t="n">
-        <v>1863.390698691024</v>
+        <v>57.25445378822431</v>
       </c>
       <c r="J39" t="n">
-        <v>254.207825529544</v>
+        <v>0.4686878611391473</v>
       </c>
       <c r="K39" t="n">
-        <v>46.01737198298669</v>
+        <v>7.597574721538674</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:46:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:38:11 GMT-5</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>9.98504342831508</v>
+        <v>52.90183517130092</v>
       </c>
       <c r="D40" t="n">
-        <v>6.585048132133902</v>
+        <v>6.235074503373543</v>
       </c>
       <c r="E40" t="n">
-        <v>48</v>
+        <v>63.721</v>
       </c>
       <c r="F40" t="n">
-        <v>-11</v>
+        <v>4.6333</v>
       </c>
       <c r="G40" t="n">
-        <v>38.01495657168492</v>
+        <v>10.81916482869908</v>
       </c>
       <c r="H40" t="n">
-        <v>17.5850481321339</v>
+        <v>1.601774503373543</v>
       </c>
       <c r="I40" t="n">
-        <v>1445.136923147091</v>
+        <v>117.0543275905592</v>
       </c>
       <c r="J40" t="n">
-        <v>309.233917809466</v>
+        <v>2.565681559657559</v>
       </c>
       <c r="K40" t="n">
-        <v>41.88521028903349</v>
+        <v>10.93709326787592</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:46:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:39:11 GMT-5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6.585048132133902</v>
+        <v>52.90183517130092</v>
       </c>
       <c r="D41" t="n">
-        <v>9.98504342831508</v>
+        <v>6.235074503373543</v>
       </c>
       <c r="E41" t="n">
-        <v>48</v>
+        <v>63.721</v>
       </c>
       <c r="F41" t="n">
-        <v>-11</v>
+        <v>4.6333</v>
       </c>
       <c r="G41" t="n">
-        <v>41.4149518678661</v>
+        <v>10.81916482869908</v>
       </c>
       <c r="H41" t="n">
-        <v>20.98504342831508</v>
+        <v>1.601774503373543</v>
       </c>
       <c r="I41" t="n">
-        <v>1715.198238217666</v>
+        <v>117.0543275905592</v>
       </c>
       <c r="J41" t="n">
-        <v>440.37204768827</v>
+        <v>2.565681559657559</v>
       </c>
       <c r="K41" t="n">
-        <v>46.42811956030457</v>
+        <v>10.93709326787592</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:46:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:40:11 GMT-5</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.943896184105819</v>
+        <v>52.67142247303302</v>
       </c>
       <c r="D42" t="n">
-        <v>4.832990621412938</v>
+        <v>8.341495622998126</v>
       </c>
       <c r="E42" t="n">
-        <v>48</v>
+        <v>63.721</v>
       </c>
       <c r="F42" t="n">
-        <v>-11</v>
+        <v>4.6333</v>
       </c>
       <c r="G42" t="n">
-        <v>43.05610381589418</v>
+        <v>11.04957752696698</v>
       </c>
       <c r="H42" t="n">
-        <v>15.83299062141294</v>
+        <v>3.708195622998126</v>
       </c>
       <c r="I42" t="n">
-        <v>1853.828075805058</v>
+        <v>122.0931635244537</v>
       </c>
       <c r="J42" t="n">
-        <v>250.68359201775</v>
+        <v>13.75071477842246</v>
       </c>
       <c r="K42" t="n">
-        <v>45.87495686998308</v>
+        <v>11.65520820504191</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 15:46:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:41:11 GMT-5</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.832990621412936</v>
+        <v>52.97479482961834</v>
       </c>
       <c r="D43" t="n">
-        <v>4.943896184105817</v>
+        <v>8.008666648529177</v>
       </c>
       <c r="E43" t="n">
-        <v>48</v>
+        <v>63.721</v>
       </c>
       <c r="F43" t="n">
-        <v>-11</v>
+        <v>4.6333</v>
       </c>
       <c r="G43" t="n">
-        <v>43.16700937858707</v>
+        <v>10.74620517038166</v>
       </c>
       <c r="H43" t="n">
-        <v>15.94389618410582</v>
+        <v>3.375366648529177</v>
       </c>
       <c r="I43" t="n">
-        <v>1863.390698691024</v>
+        <v>115.4809255639375</v>
       </c>
       <c r="J43" t="n">
-        <v>254.207825529544</v>
+        <v>11.39310001200309</v>
       </c>
       <c r="K43" t="n">
-        <v>46.01737198298669</v>
+        <v>11.26383707161732</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:04:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:42:11 GMT-5</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>12.40104871793649</v>
+        <v>51.70640336574716</v>
       </c>
       <c r="D44" t="n">
-        <v>7.978310017486665</v>
+        <v>6.79495069169473</v>
       </c>
       <c r="E44" t="n">
-        <v>48</v>
+        <v>63.721</v>
       </c>
       <c r="F44" t="n">
-        <v>-11</v>
+        <v>4.6333</v>
       </c>
       <c r="G44" t="n">
-        <v>35.59895128206351</v>
+        <v>12.01459663425284</v>
       </c>
       <c r="H44" t="n">
-        <v>18.97831001748666</v>
+        <v>2.16165069169473</v>
       </c>
       <c r="I44" t="n">
-        <v>1267.285332382731</v>
+        <v>144.3505322837997</v>
       </c>
       <c r="J44" t="n">
-        <v>360.1762511198347</v>
+        <v>4.672733712904304</v>
       </c>
       <c r="K44" t="n">
-        <v>40.34180937318709</v>
+        <v>12.20750859089208</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:04:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:43:11 GMT-5</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6.591806117947039</v>
+        <v>63.58608918137795</v>
       </c>
       <c r="D45" t="n">
-        <v>1.504981010145483</v>
+        <v>5.34785658385562</v>
       </c>
       <c r="E45" t="n">
-        <v>48</v>
+        <v>63.721</v>
       </c>
       <c r="F45" t="n">
-        <v>-11</v>
+        <v>4.6333</v>
       </c>
       <c r="G45" t="n">
-        <v>41.40819388205296</v>
+        <v>0.1349108186220462</v>
       </c>
       <c r="H45" t="n">
-        <v>12.50498101014548</v>
+        <v>0.7145565838556198</v>
       </c>
       <c r="I45" t="n">
-        <v>1714.638520573689</v>
+        <v>0.01820092898127066</v>
       </c>
       <c r="J45" t="n">
-        <v>156.3745500640992</v>
+        <v>0.5105911115314135</v>
       </c>
       <c r="K45" t="n">
-        <v>43.25520859547192</v>
+        <v>0.7271808856898565</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:04:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:46:11 GMT-5</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7.978310017486672</v>
+        <v>56.18962649650189</v>
       </c>
       <c r="D46" t="n">
-        <v>12.40104871793649</v>
+        <v>6.468080180011698</v>
       </c>
       <c r="E46" t="n">
-        <v>48</v>
+        <v>63.721</v>
       </c>
       <c r="F46" t="n">
-        <v>-11</v>
+        <v>4.6333</v>
       </c>
       <c r="G46" t="n">
-        <v>40.02168998251333</v>
+        <v>7.531373503498109</v>
       </c>
       <c r="H46" t="n">
-        <v>23.40104871793649</v>
+        <v>1.834780180011697</v>
       </c>
       <c r="I46" t="n">
-        <v>1601.735669056408</v>
+        <v>56.72158684919339</v>
       </c>
       <c r="J46" t="n">
-        <v>547.6090810992371</v>
+        <v>3.366418308963757</v>
       </c>
       <c r="K46" t="n">
-        <v>46.36102619825886</v>
+        <v>7.75164531942459</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:04:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:47:11 GMT-5</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F89FB4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.504981010145482</v>
+        <v>55.82377054109673</v>
       </c>
       <c r="D47" t="n">
-        <v>6.591806117947037</v>
+        <v>6.711616494172011</v>
       </c>
       <c r="E47" t="n">
-        <v>48</v>
+        <v>63.721</v>
       </c>
       <c r="F47" t="n">
-        <v>-11</v>
+        <v>4.6333</v>
       </c>
       <c r="G47" t="n">
-        <v>46.49501898985451</v>
+        <v>7.897229458903269</v>
       </c>
       <c r="H47" t="n">
-        <v>17.59180611794704</v>
+        <v>2.078316494172011</v>
       </c>
       <c r="I47" t="n">
-        <v>2161.786790866932</v>
+        <v>62.36623312656961</v>
       </c>
       <c r="J47" t="n">
-        <v>309.4716424914388</v>
+        <v>4.319399449947438</v>
       </c>
       <c r="K47" t="n">
-        <v>49.71175347298031</v>
+        <v>8.16612714672733</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:05:11 GMT-5</t>
+          <t>mié 02 dic 2020, 14:58:11 GMT-5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2284,37 +2284,37 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6.591806117947039</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="D48" t="n">
-        <v>1.504981010145483</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="E48" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F48" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>41.40819388205296</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="H48" t="n">
-        <v>12.50498101014548</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="I48" t="n">
-        <v>1714.638520573689</v>
+        <v>65.632462316417</v>
       </c>
       <c r="J48" t="n">
-        <v>156.3745500640992</v>
+        <v>65.632462316417</v>
       </c>
       <c r="K48" t="n">
-        <v>43.25520859547192</v>
+        <v>11.45709058325167</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:05:11 GMT-5</t>
+          <t>mié 02 dic 2020, 14:59:11 GMT-5</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2323,37 +2323,37 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.45616036667265</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="D49" t="n">
-        <v>-11.81216389671348</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="E49" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F49" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>46.54383963332735</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8121638967134768</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="I49" t="n">
-        <v>2166.329007812894</v>
+        <v>65.632462316417</v>
       </c>
       <c r="J49" t="n">
-        <v>0.659610195124819</v>
+        <v>65.632462316417</v>
       </c>
       <c r="K49" t="n">
-        <v>46.55092499626639</v>
+        <v>11.45709058325167</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:05:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:00:11 GMT-5</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2362,37 +2362,37 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.504981010145482</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="D50" t="n">
-        <v>6.591806117947037</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="E50" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F50" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G50" t="n">
-        <v>46.49501898985451</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="H50" t="n">
-        <v>17.59180611794704</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="I50" t="n">
-        <v>2161.786790866932</v>
+        <v>65.632462316417</v>
       </c>
       <c r="J50" t="n">
-        <v>309.4716424914388</v>
+        <v>65.632462316417</v>
       </c>
       <c r="K50" t="n">
-        <v>49.71175347298031</v>
+        <v>11.45709058325167</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:05:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:01:11 GMT-5</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2401,37 +2401,37 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>11.80091104222758</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="D51" t="n">
-        <v>10.79616916728051</v>
+        <v>48.10138644408579</v>
       </c>
       <c r="E51" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F51" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G51" t="n">
-        <v>36.19908895777242</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="H51" t="n">
-        <v>21.79616916728051</v>
+        <v>8.10138644408579</v>
       </c>
       <c r="I51" t="n">
-        <v>1310.374041372721</v>
+        <v>65.632462316417</v>
       </c>
       <c r="J51" t="n">
-        <v>475.0729903687097</v>
+        <v>65.632462316417</v>
       </c>
       <c r="K51" t="n">
-        <v>42.25455042645029</v>
+        <v>11.45709058325167</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:05:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:08:11 GMT-5</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2440,37 +2440,37 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-11.81216389671348</v>
+        <v>48.72715090313213</v>
       </c>
       <c r="D52" t="n">
-        <v>1.45616036667265</v>
+        <v>48.72715090313213</v>
       </c>
       <c r="E52" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F52" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G52" t="n">
-        <v>59.81216389671348</v>
+        <v>8.727150903132127</v>
       </c>
       <c r="H52" t="n">
-        <v>12.45616036667265</v>
+        <v>8.727150903132127</v>
       </c>
       <c r="I52" t="n">
-        <v>3577.494950007315</v>
+        <v>76.1631628860399</v>
       </c>
       <c r="J52" t="n">
-        <v>155.1559310802665</v>
+        <v>76.1631628860399</v>
       </c>
       <c r="K52" t="n">
-        <v>61.0954243874906</v>
+        <v>12.34205516808606</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:05:11 GMT-5</t>
+          <t>mié 02 dic 2020, 15:39:11 GMT-5</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2479,37 +2479,37 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10.79616916728051</v>
+        <v>62.36381786288057</v>
       </c>
       <c r="D53" t="n">
-        <v>11.80091104222758</v>
+        <v>62.36381786288057</v>
       </c>
       <c r="E53" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F53" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G53" t="n">
-        <v>37.20383083271949</v>
+        <v>22.36381786288057</v>
       </c>
       <c r="H53" t="n">
-        <v>22.80091104222758</v>
+        <v>22.36381786288057</v>
       </c>
       <c r="I53" t="n">
-        <v>1384.125028629609</v>
+        <v>500.1403494040959</v>
       </c>
       <c r="J53" t="n">
-        <v>519.8815443555756</v>
+        <v>500.1403494040959</v>
       </c>
       <c r="K53" t="n">
-        <v>43.63492377654836</v>
+        <v>31.62721452812738</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:30:17 GMT-5</t>
+          <t>mié 02 dic 2020, 15:40:11 GMT-5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2518,37 +2518,37 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>14.94625984266034</v>
+        <v>62.36381786288057</v>
       </c>
       <c r="D54" t="n">
-        <v>9.786713679441151</v>
+        <v>62.36381786288057</v>
       </c>
       <c r="E54" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F54" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G54" t="n">
-        <v>33.05374015733966</v>
+        <v>22.36381786288057</v>
       </c>
       <c r="H54" t="n">
-        <v>20.78671367944115</v>
+        <v>22.36381786288057</v>
       </c>
       <c r="I54" t="n">
-        <v>1092.549738388929</v>
+        <v>500.1403494040959</v>
       </c>
       <c r="J54" t="n">
-        <v>432.0874655910658</v>
+        <v>500.1403494040959</v>
       </c>
       <c r="K54" t="n">
-        <v>39.04660297618724</v>
+        <v>31.62721452812738</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:30:17 GMT-5</t>
+          <t>mié 02 dic 2020, 15:41:11 GMT-5</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2557,37 +2557,37 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9.786713679441151</v>
+        <v>65.61340278115887</v>
       </c>
       <c r="D55" t="n">
-        <v>14.94625984266034</v>
+        <v>65.61340278115888</v>
       </c>
       <c r="E55" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F55" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G55" t="n">
-        <v>38.21328632055885</v>
+        <v>25.61340278115887</v>
       </c>
       <c r="H55" t="n">
-        <v>25.94625984266034</v>
+        <v>25.61340278115888</v>
       </c>
       <c r="I55" t="n">
-        <v>1460.25525141701</v>
+        <v>656.0464020298768</v>
       </c>
       <c r="J55" t="n">
-        <v>673.2083998228485</v>
+        <v>656.0464020298775</v>
       </c>
       <c r="K55" t="n">
-        <v>46.18943224634677</v>
+        <v>36.22282159163963</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:52:17 GMT-5</t>
+          <t>mié 02 dic 2020, 15:42:11 GMT-5</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2596,37 +2596,37 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>10.86002479498526</v>
+        <v>65.61340278115887</v>
       </c>
       <c r="D56" t="n">
-        <v>-6.860024794985257</v>
+        <v>65.61340278115888</v>
       </c>
       <c r="E56" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F56" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G56" t="n">
-        <v>37.13997520501474</v>
+        <v>25.61340278115887</v>
       </c>
       <c r="H56" t="n">
-        <v>4.139975205014743</v>
+        <v>25.61340278115888</v>
       </c>
       <c r="I56" t="n">
-        <v>1379.37775822911</v>
+        <v>656.0464020298768</v>
       </c>
       <c r="J56" t="n">
-        <v>17.13939469813686</v>
+        <v>656.0464020298775</v>
       </c>
       <c r="K56" t="n">
-        <v>37.37000338409467</v>
+        <v>36.22282159163963</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:52:17 GMT-5</t>
+          <t>mié 02 dic 2020, 15:43:11 GMT-5</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2635,37 +2635,37 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17.07969743315064</v>
+        <v>61.86374843559684</v>
       </c>
       <c r="D57" t="n">
-        <v>14.31277469897177</v>
+        <v>61.86374843559684</v>
       </c>
       <c r="E57" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F57" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G57" t="n">
-        <v>30.92030256684936</v>
+        <v>21.86374843559684</v>
       </c>
       <c r="H57" t="n">
-        <v>25.31277469897177</v>
+        <v>21.86374843559684</v>
       </c>
       <c r="I57" t="n">
-        <v>956.0651108255111</v>
+        <v>478.0234956550632</v>
       </c>
       <c r="J57" t="n">
-        <v>640.7365629609053</v>
+        <v>478.0234956550632</v>
       </c>
       <c r="K57" t="n">
-        <v>39.96000092325345</v>
+        <v>30.92000956193459</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:52:17 GMT-5</t>
+          <t>mié 02 dic 2020, 15:44:11 GMT-5</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2674,37 +2674,37 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-6.860024794985257</v>
+        <v>61.86374843559684</v>
       </c>
       <c r="D58" t="n">
-        <v>10.86002479498526</v>
+        <v>61.86374843559684</v>
       </c>
       <c r="E58" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F58" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G58" t="n">
-        <v>54.86002479498526</v>
+        <v>21.86374843559684</v>
       </c>
       <c r="H58" t="n">
-        <v>21.86002479498526</v>
+        <v>21.86374843559684</v>
       </c>
       <c r="I58" t="n">
-        <v>3009.622320506397</v>
+        <v>478.0234956550632</v>
       </c>
       <c r="J58" t="n">
-        <v>477.8606840373702</v>
+        <v>478.0234956550632</v>
       </c>
       <c r="K58" t="n">
-        <v>59.05491515990661</v>
+        <v>30.92000956193459</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:52:17 GMT-5</t>
+          <t>mié 02 dic 2020, 15:45:11 GMT-5</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2713,37 +2713,37 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>25.25658339877738</v>
+        <v>56.83537143895128</v>
       </c>
       <c r="D59" t="n">
-        <v>25.36331489788317</v>
+        <v>56.83537143895128</v>
       </c>
       <c r="E59" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F59" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G59" t="n">
-        <v>22.74341660122262</v>
+        <v>16.83537143895128</v>
       </c>
       <c r="H59" t="n">
-        <v>36.36331489788317</v>
+        <v>16.83537143895128</v>
       </c>
       <c r="I59" t="n">
-        <v>517.2629986967685</v>
+        <v>283.4297314874566</v>
       </c>
       <c r="J59" t="n">
-        <v>1322.290670362612</v>
+        <v>283.4297314874566</v>
       </c>
       <c r="K59" t="n">
-        <v>42.89001829166526</v>
+        <v>23.80881061655355</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:52:17 GMT-5</t>
+          <t>mié 02 dic 2020, 15:46:11 GMT-5</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2752,37 +2752,37 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>14.31277469897177</v>
+        <v>56.83537143895128</v>
       </c>
       <c r="D60" t="n">
-        <v>17.07969743315064</v>
+        <v>56.83537143895128</v>
       </c>
       <c r="E60" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F60" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G60" t="n">
-        <v>33.68722530102823</v>
+        <v>16.83537143895128</v>
       </c>
       <c r="H60" t="n">
-        <v>28.07969743315064</v>
+        <v>16.83537143895128</v>
       </c>
       <c r="I60" t="n">
-        <v>1134.829148482237</v>
+        <v>283.4297314874566</v>
       </c>
       <c r="J60" t="n">
-        <v>788.4694079372867</v>
+        <v>283.4297314874566</v>
       </c>
       <c r="K60" t="n">
-        <v>43.85542790145279</v>
+        <v>23.80881061655355</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:52:17 GMT-5</t>
+          <t>mié 02 dic 2020, 16:04:11 GMT-5</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2791,37 +2791,37 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>25.36331489788316</v>
+        <v>53.36392729052783</v>
       </c>
       <c r="D61" t="n">
-        <v>25.25658339877738</v>
+        <v>53.36392729052783</v>
       </c>
       <c r="E61" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F61" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G61" t="n">
-        <v>22.63668510211684</v>
+        <v>13.36392729052783</v>
       </c>
       <c r="H61" t="n">
-        <v>36.25658339877738</v>
+        <v>13.36392729052783</v>
       </c>
       <c r="I61" t="n">
-        <v>512.4195124123983</v>
+        <v>178.5945526265146</v>
       </c>
       <c r="J61" t="n">
-        <v>1314.5398397525</v>
+        <v>178.5945526265144</v>
       </c>
       <c r="K61" t="n">
-        <v>42.74294505722433</v>
+        <v>18.89944722083239</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:53:17 GMT-5</t>
+          <t>mié 02 dic 2020, 16:05:11 GMT-5</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2830,37 +2830,37 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>14.87141942217536</v>
+        <v>45.20430774325964</v>
       </c>
       <c r="D62" t="n">
-        <v>12.32149607801811</v>
+        <v>45.20430774325964</v>
       </c>
       <c r="E62" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F62" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>33.12858057782464</v>
+        <v>5.204307743259641</v>
       </c>
       <c r="H62" t="n">
-        <v>23.32149607801811</v>
+        <v>5.204307743259641</v>
       </c>
       <c r="I62" t="n">
-        <v>1097.50285110142</v>
+        <v>27.08481908655225</v>
       </c>
       <c r="J62" t="n">
-        <v>543.892179317014</v>
+        <v>27.08481908655225</v>
       </c>
       <c r="K62" t="n">
-        <v>40.51413371181017</v>
+        <v>7.360002593281099</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:53:17 GMT-5</t>
+          <t>mié 02 dic 2020, 16:30:17 GMT-5</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2869,37 +2869,37 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6.164015709879037</v>
+        <v>51.54769953543048</v>
       </c>
       <c r="D63" t="n">
-        <v>-9.999062448416836</v>
+        <v>51.54769953543048</v>
       </c>
       <c r="E63" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F63" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>41.83598429012096</v>
+        <v>11.54769953543048</v>
       </c>
       <c r="H63" t="n">
-        <v>1.000937551583164</v>
+        <v>11.54769953543048</v>
       </c>
       <c r="I63" t="n">
-        <v>1750.249581523248</v>
+        <v>133.3493645605814</v>
       </c>
       <c r="J63" t="n">
-        <v>1.001875982169298</v>
+        <v>133.3493645605814</v>
       </c>
       <c r="K63" t="n">
-        <v>41.84795643165168</v>
+        <v>16.33091329721528</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:53:17 GMT-5</t>
+          <t>mié 02 dic 2020, 16:52:17 GMT-5</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2908,31 +2908,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>12.32149607801811</v>
+        <v>48.72715090313213</v>
       </c>
       <c r="D64" t="n">
-        <v>14.87141942217536</v>
+        <v>48.72715090313213</v>
       </c>
       <c r="E64" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F64" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G64" t="n">
-        <v>35.67850392198189</v>
+        <v>8.727150903132127</v>
       </c>
       <c r="H64" t="n">
-        <v>25.87141942217536</v>
+        <v>8.727150903132127</v>
       </c>
       <c r="I64" t="n">
-        <v>1272.955642110877</v>
+        <v>76.1631628860399</v>
       </c>
       <c r="J64" t="n">
-        <v>669.3303429181125</v>
+        <v>76.1631628860399</v>
       </c>
       <c r="K64" t="n">
-        <v>44.07137375926679</v>
+        <v>12.34205516808606</v>
       </c>
     </row>
     <row r="65">
@@ -2947,37 +2947,37 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>25.1310560796723</v>
+        <v>52.27401018224722</v>
       </c>
       <c r="D65" t="n">
-        <v>24.91991768920901</v>
+        <v>52.27401018224722</v>
       </c>
       <c r="E65" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F65" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G65" t="n">
-        <v>22.8689439203277</v>
+        <v>12.27401018224722</v>
       </c>
       <c r="H65" t="n">
-        <v>35.91991768920901</v>
+        <v>12.27401018224722</v>
       </c>
       <c r="I65" t="n">
-        <v>522.9885960310934</v>
+        <v>150.6513259539085</v>
       </c>
       <c r="J65" t="n">
-        <v>1290.24048679955</v>
+        <v>150.6513259539085</v>
       </c>
       <c r="K65" t="n">
-        <v>42.58202769749984</v>
+        <v>17.35807166443949</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:53:17 GMT-5</t>
+          <t>mié 02 dic 2020, 16:54:17 GMT-5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2986,226 +2986,2878 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-9.999062448416836</v>
+        <v>52.27401018224722</v>
       </c>
       <c r="D66" t="n">
-        <v>6.164015709879039</v>
+        <v>52.27401018224722</v>
       </c>
       <c r="E66" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F66" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G66" t="n">
-        <v>57.99906244841684</v>
+        <v>12.27401018224722</v>
       </c>
       <c r="H66" t="n">
-        <v>17.16401570987904</v>
+        <v>12.27401018224722</v>
       </c>
       <c r="I66" t="n">
-        <v>3363.891244895356</v>
+        <v>150.6513259539085</v>
       </c>
       <c r="J66" t="n">
-        <v>294.6034352889744</v>
+        <v>150.6513259539085</v>
       </c>
       <c r="K66" t="n">
-        <v>60.4854914850192</v>
+        <v>17.35807166443949</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:53:17 GMT-5</t>
+          <t>mié 02 dic 2020, 15:26:09 GMT-5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>24.919917689209</v>
+        <v>47.79216986802565</v>
       </c>
       <c r="D67" t="n">
-        <v>25.13105607967229</v>
+        <v>47.79216986802565</v>
       </c>
       <c r="E67" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F67" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G67" t="n">
-        <v>23.080082310791</v>
+        <v>7.792169868025653</v>
       </c>
       <c r="H67" t="n">
-        <v>36.13105607967229</v>
+        <v>7.792169868025653</v>
       </c>
       <c r="I67" t="n">
-        <v>532.6901994728875</v>
+        <v>60.71791125216691</v>
       </c>
       <c r="J67" t="n">
-        <v>1305.453213432424</v>
+        <v>60.71791125216691</v>
       </c>
       <c r="K67" t="n">
-        <v>42.87357476237911</v>
+        <v>11.01979230767685</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:54:17 GMT-5</t>
+          <t>mié 02 dic 2020, 15:34:09 GMT-5</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>13.25563290334519</v>
+        <v>48.12452435303677</v>
       </c>
       <c r="D68" t="n">
-        <v>15.1418768954148</v>
+        <v>48.12452435303677</v>
       </c>
       <c r="E68" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F68" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G68" t="n">
-        <v>34.74436709665481</v>
+        <v>8.124524353036769</v>
       </c>
       <c r="H68" t="n">
-        <v>26.1418768954148</v>
+        <v>8.124524353036769</v>
       </c>
       <c r="I68" t="n">
-        <v>1207.171044947109</v>
+        <v>66.00789596308752</v>
       </c>
       <c r="J68" t="n">
-        <v>683.3977276150223</v>
+        <v>66.00789596308752</v>
       </c>
       <c r="K68" t="n">
-        <v>43.48067125243275</v>
+        <v>11.48981252789509</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:54:17 GMT-5</t>
+          <t>mié 02 dic 2020, 15:35:09 GMT-5</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-9.999062448416836</v>
+        <v>48.21693946459904</v>
       </c>
       <c r="D69" t="n">
-        <v>6.164015709879039</v>
+        <v>48.21693946459904</v>
       </c>
       <c r="E69" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F69" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G69" t="n">
-        <v>57.99906244841684</v>
+        <v>8.216939464599044</v>
       </c>
       <c r="H69" t="n">
-        <v>17.16401570987904</v>
+        <v>8.216939464599044</v>
       </c>
       <c r="I69" t="n">
-        <v>3363.891244895356</v>
+        <v>67.51809416488521</v>
       </c>
       <c r="J69" t="n">
-        <v>294.6034352889744</v>
+        <v>67.51809416488521</v>
       </c>
       <c r="K69" t="n">
-        <v>60.4854914850192</v>
+        <v>11.62050723203468</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>mié 02 dic 2020, 16:54:17 GMT-5</t>
+          <t>mié 02 dic 2020, 15:42:09 GMT-5</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>F81F32F8A5D4</t>
+          <t>F81F32F8A61E</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15.14187689541481</v>
+        <v>57.62134228667543</v>
       </c>
       <c r="D70" t="n">
-        <v>13.2556329033452</v>
+        <v>57.62134228667543</v>
       </c>
       <c r="E70" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F70" t="n">
-        <v>-11</v>
+        <v>40</v>
       </c>
       <c r="G70" t="n">
-        <v>32.85812310458519</v>
+        <v>17.62134228667543</v>
       </c>
       <c r="H70" t="n">
-        <v>24.2556329033452</v>
+        <v>17.62134228667543</v>
       </c>
       <c r="I70" t="n">
-        <v>1079.656253956075</v>
+        <v>310.5117039841756</v>
       </c>
       <c r="J70" t="n">
-        <v>588.3357275418422</v>
+        <v>310.5117039841756</v>
       </c>
       <c r="K70" t="n">
-        <v>40.8410575462722</v>
+        <v>24.92034124903492</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>mié 02 dic 2020, 15:43:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>57.62134228667543</v>
+      </c>
+      <c r="D71" t="n">
+        <v>57.62134228667543</v>
+      </c>
+      <c r="E71" t="n">
+        <v>40</v>
+      </c>
+      <c r="F71" t="n">
+        <v>40</v>
+      </c>
+      <c r="G71" t="n">
+        <v>17.62134228667543</v>
+      </c>
+      <c r="H71" t="n">
+        <v>17.62134228667543</v>
+      </c>
+      <c r="I71" t="n">
+        <v>310.5117039841756</v>
+      </c>
+      <c r="J71" t="n">
+        <v>310.5117039841756</v>
+      </c>
+      <c r="K71" t="n">
+        <v>24.92034124903492</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:58:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>62.13563299211259</v>
+      </c>
+      <c r="D72" t="n">
+        <v>62.13563299211259</v>
+      </c>
+      <c r="E72" t="n">
+        <v>40</v>
+      </c>
+      <c r="F72" t="n">
+        <v>40</v>
+      </c>
+      <c r="G72" t="n">
+        <v>22.13563299211259</v>
+      </c>
+      <c r="H72" t="n">
+        <v>22.13563299211259</v>
+      </c>
+      <c r="I72" t="n">
+        <v>489.9862479615034</v>
+      </c>
+      <c r="J72" t="n">
+        <v>489.9862479615034</v>
+      </c>
+      <c r="K72" t="n">
+        <v>31.30451238915896</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:59:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>62.13563299211259</v>
+      </c>
+      <c r="D73" t="n">
+        <v>62.13563299211259</v>
+      </c>
+      <c r="E73" t="n">
+        <v>40</v>
+      </c>
+      <c r="F73" t="n">
+        <v>40</v>
+      </c>
+      <c r="G73" t="n">
+        <v>22.13563299211259</v>
+      </c>
+      <c r="H73" t="n">
+        <v>22.13563299211259</v>
+      </c>
+      <c r="I73" t="n">
+        <v>489.9862479615034</v>
+      </c>
+      <c r="J73" t="n">
+        <v>489.9862479615034</v>
+      </c>
+      <c r="K73" t="n">
+        <v>31.30451238915896</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:00:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>61.76215867009724</v>
+      </c>
+      <c r="D74" t="n">
+        <v>61.76215867009724</v>
+      </c>
+      <c r="E74" t="n">
+        <v>40</v>
+      </c>
+      <c r="F74" t="n">
+        <v>40</v>
+      </c>
+      <c r="G74" t="n">
+        <v>21.76215867009724</v>
+      </c>
+      <c r="H74" t="n">
+        <v>21.76215867009724</v>
+      </c>
+      <c r="I74" t="n">
+        <v>473.5915499824883</v>
+      </c>
+      <c r="J74" t="n">
+        <v>473.5915499824886</v>
+      </c>
+      <c r="K74" t="n">
+        <v>30.77633993776675</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:01:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>61.76215867009724</v>
+      </c>
+      <c r="D75" t="n">
+        <v>61.76215867009724</v>
+      </c>
+      <c r="E75" t="n">
+        <v>40</v>
+      </c>
+      <c r="F75" t="n">
+        <v>40</v>
+      </c>
+      <c r="G75" t="n">
+        <v>21.76215867009724</v>
+      </c>
+      <c r="H75" t="n">
+        <v>21.76215867009724</v>
+      </c>
+      <c r="I75" t="n">
+        <v>473.5915499824883</v>
+      </c>
+      <c r="J75" t="n">
+        <v>473.5915499824886</v>
+      </c>
+      <c r="K75" t="n">
+        <v>30.77633993776675</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:02:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>58.12965027002414</v>
+      </c>
+      <c r="D76" t="n">
+        <v>58.12965027002414</v>
+      </c>
+      <c r="E76" t="n">
+        <v>40</v>
+      </c>
+      <c r="F76" t="n">
+        <v>40</v>
+      </c>
+      <c r="G76" t="n">
+        <v>18.12965027002414</v>
+      </c>
+      <c r="H76" t="n">
+        <v>18.12965027002414</v>
+      </c>
+      <c r="I76" t="n">
+        <v>328.6842189133862</v>
+      </c>
+      <c r="J76" t="n">
+        <v>328.6842189133862</v>
+      </c>
+      <c r="K76" t="n">
+        <v>25.63919729294918</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:03:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>58.12965027002414</v>
+      </c>
+      <c r="D77" t="n">
+        <v>58.12965027002414</v>
+      </c>
+      <c r="E77" t="n">
+        <v>40</v>
+      </c>
+      <c r="F77" t="n">
+        <v>40</v>
+      </c>
+      <c r="G77" t="n">
+        <v>18.12965027002414</v>
+      </c>
+      <c r="H77" t="n">
+        <v>18.12965027002414</v>
+      </c>
+      <c r="I77" t="n">
+        <v>328.6842189133862</v>
+      </c>
+      <c r="J77" t="n">
+        <v>328.6842189133862</v>
+      </c>
+      <c r="K77" t="n">
+        <v>25.63919729294918</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:31:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>25.27199504247042</v>
+      </c>
+      <c r="D78" t="n">
+        <v>25.27199504247042</v>
+      </c>
+      <c r="E78" t="n">
+        <v>40</v>
+      </c>
+      <c r="F78" t="n">
+        <v>40</v>
+      </c>
+      <c r="G78" t="n">
+        <v>14.72800495752958</v>
+      </c>
+      <c r="H78" t="n">
+        <v>14.72800495752958</v>
+      </c>
+      <c r="I78" t="n">
+        <v>216.914130029016</v>
+      </c>
+      <c r="J78" t="n">
+        <v>216.914130029016</v>
+      </c>
+      <c r="K78" t="n">
+        <v>20.82854435763652</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:35:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="D79" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="E79" t="n">
+        <v>40</v>
+      </c>
+      <c r="F79" t="n">
+        <v>40</v>
+      </c>
+      <c r="G79" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="I79" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="J79" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="K79" t="n">
+        <v>11.62050723203468</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:36:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="D80" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="E80" t="n">
+        <v>40</v>
+      </c>
+      <c r="F80" t="n">
+        <v>40</v>
+      </c>
+      <c r="G80" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="I80" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="J80" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="K80" t="n">
+        <v>11.62050723203468</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:37:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="D81" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="E81" t="n">
+        <v>40</v>
+      </c>
+      <c r="F81" t="n">
+        <v>40</v>
+      </c>
+      <c r="G81" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="I81" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="J81" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="K81" t="n">
+        <v>11.62050723203468</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:34:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>69.74220943234099</v>
+      </c>
+      <c r="D82" t="n">
+        <v>14.61196230929304</v>
+      </c>
+      <c r="E82" t="n">
+        <v>70.52200000000001</v>
+      </c>
+      <c r="F82" t="n">
+        <v>13.821</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.7797905676590204</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.790962309293036</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.6080733294099774</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.6256213747221724</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.110718102910072</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:35:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>72.31591490403824</v>
+      </c>
+      <c r="D83" t="n">
+        <v>12.7026810410567</v>
+      </c>
+      <c r="E83" t="n">
+        <v>70.52200000000001</v>
+      </c>
+      <c r="F83" t="n">
+        <v>13.821</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.793914904038232</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.118318958943304</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.218130682930499</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.250637293932035</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2.113946067633357</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:36:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>74.60364424003917</v>
+      </c>
+      <c r="D84" t="n">
+        <v>14.88043340981879</v>
+      </c>
+      <c r="E84" t="n">
+        <v>70.52200000000001</v>
+      </c>
+      <c r="F84" t="n">
+        <v>14.821</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4.081644240039168</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.05943340981879253</v>
+      </c>
+      <c r="I84" t="n">
+        <v>16.65981970224492</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.003532330202688544</v>
+      </c>
+      <c r="K84" t="n">
+        <v>4.082076926326549</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:37:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>56.15433271590297</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.948692184430278</v>
+      </c>
+      <c r="E85" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G85" t="n">
+        <v>7.566667284097029</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.6846078155697226</v>
+      </c>
+      <c r="I85" t="n">
+        <v>57.25445378822431</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.4686878611391473</v>
+      </c>
+      <c r="K85" t="n">
+        <v>7.597574721538674</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:38:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>52.90183517130092</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6.235074503373543</v>
+      </c>
+      <c r="E86" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G86" t="n">
+        <v>10.81916482869908</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.601774503373543</v>
+      </c>
+      <c r="I86" t="n">
+        <v>117.0543275905592</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.565681559657559</v>
+      </c>
+      <c r="K86" t="n">
+        <v>10.93709326787592</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:39:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>52.90183517130092</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6.235074503373543</v>
+      </c>
+      <c r="E87" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G87" t="n">
+        <v>10.81916482869908</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.601774503373543</v>
+      </c>
+      <c r="I87" t="n">
+        <v>117.0543275905592</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.565681559657559</v>
+      </c>
+      <c r="K87" t="n">
+        <v>10.93709326787592</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:40:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>52.67142247303302</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8.341495622998126</v>
+      </c>
+      <c r="E88" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G88" t="n">
+        <v>11.04957752696698</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3.708195622998126</v>
+      </c>
+      <c r="I88" t="n">
+        <v>122.0931635244537</v>
+      </c>
+      <c r="J88" t="n">
+        <v>13.75071477842246</v>
+      </c>
+      <c r="K88" t="n">
+        <v>11.65520820504191</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:41:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>52.97479482961834</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8.008666648529177</v>
+      </c>
+      <c r="E89" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G89" t="n">
+        <v>10.74620517038166</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3.375366648529177</v>
+      </c>
+      <c r="I89" t="n">
+        <v>115.4809255639375</v>
+      </c>
+      <c r="J89" t="n">
+        <v>11.39310001200309</v>
+      </c>
+      <c r="K89" t="n">
+        <v>11.26383707161732</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:42:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>51.70640336574716</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6.79495069169473</v>
+      </c>
+      <c r="E90" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G90" t="n">
+        <v>12.01459663425284</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.16165069169473</v>
+      </c>
+      <c r="I90" t="n">
+        <v>144.3505322837997</v>
+      </c>
+      <c r="J90" t="n">
+        <v>4.672733712904304</v>
+      </c>
+      <c r="K90" t="n">
+        <v>12.20750859089208</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:43:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>63.58608918137795</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5.34785658385562</v>
+      </c>
+      <c r="E91" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.1349108186220462</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.7145565838556198</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.01820092898127066</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5105911115314135</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.7271808856898565</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:46:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>56.18962649650189</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6.468080180011698</v>
+      </c>
+      <c r="E92" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G92" t="n">
+        <v>7.531373503498109</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.834780180011697</v>
+      </c>
+      <c r="I92" t="n">
+        <v>56.72158684919339</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.366418308963757</v>
+      </c>
+      <c r="K92" t="n">
+        <v>7.75164531942459</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:47:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>55.82377054109673</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6.711616494172011</v>
+      </c>
+      <c r="E93" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G93" t="n">
+        <v>7.897229458903269</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.078316494172011</v>
+      </c>
+      <c r="I93" t="n">
+        <v>62.36623312656961</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4.319399449947438</v>
+      </c>
+      <c r="K93" t="n">
+        <v>8.16612714672733</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 14:58:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>48.10138644408579</v>
+      </c>
+      <c r="D94" t="n">
+        <v>48.10138644408579</v>
+      </c>
+      <c r="E94" t="n">
+        <v>40</v>
+      </c>
+      <c r="F94" t="n">
+        <v>40</v>
+      </c>
+      <c r="G94" t="n">
+        <v>8.10138644408579</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8.10138644408579</v>
+      </c>
+      <c r="I94" t="n">
+        <v>65.632462316417</v>
+      </c>
+      <c r="J94" t="n">
+        <v>65.632462316417</v>
+      </c>
+      <c r="K94" t="n">
+        <v>11.45709058325167</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 14:59:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>48.10138644408579</v>
+      </c>
+      <c r="D95" t="n">
+        <v>48.10138644408579</v>
+      </c>
+      <c r="E95" t="n">
+        <v>40</v>
+      </c>
+      <c r="F95" t="n">
+        <v>40</v>
+      </c>
+      <c r="G95" t="n">
+        <v>8.10138644408579</v>
+      </c>
+      <c r="H95" t="n">
+        <v>8.10138644408579</v>
+      </c>
+      <c r="I95" t="n">
+        <v>65.632462316417</v>
+      </c>
+      <c r="J95" t="n">
+        <v>65.632462316417</v>
+      </c>
+      <c r="K95" t="n">
+        <v>11.45709058325167</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:00:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>48.10138644408579</v>
+      </c>
+      <c r="D96" t="n">
+        <v>48.10138644408579</v>
+      </c>
+      <c r="E96" t="n">
+        <v>40</v>
+      </c>
+      <c r="F96" t="n">
+        <v>40</v>
+      </c>
+      <c r="G96" t="n">
+        <v>8.10138644408579</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8.10138644408579</v>
+      </c>
+      <c r="I96" t="n">
+        <v>65.632462316417</v>
+      </c>
+      <c r="J96" t="n">
+        <v>65.632462316417</v>
+      </c>
+      <c r="K96" t="n">
+        <v>11.45709058325167</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:01:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>48.10138644408579</v>
+      </c>
+      <c r="D97" t="n">
+        <v>48.10138644408579</v>
+      </c>
+      <c r="E97" t="n">
+        <v>40</v>
+      </c>
+      <c r="F97" t="n">
+        <v>40</v>
+      </c>
+      <c r="G97" t="n">
+        <v>8.10138644408579</v>
+      </c>
+      <c r="H97" t="n">
+        <v>8.10138644408579</v>
+      </c>
+      <c r="I97" t="n">
+        <v>65.632462316417</v>
+      </c>
+      <c r="J97" t="n">
+        <v>65.632462316417</v>
+      </c>
+      <c r="K97" t="n">
+        <v>11.45709058325167</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:08:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>48.72715090313213</v>
+      </c>
+      <c r="D98" t="n">
+        <v>48.72715090313213</v>
+      </c>
+      <c r="E98" t="n">
+        <v>40</v>
+      </c>
+      <c r="F98" t="n">
+        <v>40</v>
+      </c>
+      <c r="G98" t="n">
+        <v>8.727150903132127</v>
+      </c>
+      <c r="H98" t="n">
+        <v>8.727150903132127</v>
+      </c>
+      <c r="I98" t="n">
+        <v>76.1631628860399</v>
+      </c>
+      <c r="J98" t="n">
+        <v>76.1631628860399</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12.34205516808606</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:39:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>62.36381786288057</v>
+      </c>
+      <c r="D99" t="n">
+        <v>62.36381786288057</v>
+      </c>
+      <c r="E99" t="n">
+        <v>40</v>
+      </c>
+      <c r="F99" t="n">
+        <v>40</v>
+      </c>
+      <c r="G99" t="n">
+        <v>22.36381786288057</v>
+      </c>
+      <c r="H99" t="n">
+        <v>22.36381786288057</v>
+      </c>
+      <c r="I99" t="n">
+        <v>500.1403494040959</v>
+      </c>
+      <c r="J99" t="n">
+        <v>500.1403494040959</v>
+      </c>
+      <c r="K99" t="n">
+        <v>31.62721452812738</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:40:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>62.36381786288057</v>
+      </c>
+      <c r="D100" t="n">
+        <v>62.36381786288057</v>
+      </c>
+      <c r="E100" t="n">
+        <v>40</v>
+      </c>
+      <c r="F100" t="n">
+        <v>40</v>
+      </c>
+      <c r="G100" t="n">
+        <v>22.36381786288057</v>
+      </c>
+      <c r="H100" t="n">
+        <v>22.36381786288057</v>
+      </c>
+      <c r="I100" t="n">
+        <v>500.1403494040959</v>
+      </c>
+      <c r="J100" t="n">
+        <v>500.1403494040959</v>
+      </c>
+      <c r="K100" t="n">
+        <v>31.62721452812738</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:41:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>65.61340278115887</v>
+      </c>
+      <c r="D101" t="n">
+        <v>65.61340278115888</v>
+      </c>
+      <c r="E101" t="n">
+        <v>40</v>
+      </c>
+      <c r="F101" t="n">
+        <v>40</v>
+      </c>
+      <c r="G101" t="n">
+        <v>25.61340278115887</v>
+      </c>
+      <c r="H101" t="n">
+        <v>25.61340278115888</v>
+      </c>
+      <c r="I101" t="n">
+        <v>656.0464020298768</v>
+      </c>
+      <c r="J101" t="n">
+        <v>656.0464020298775</v>
+      </c>
+      <c r="K101" t="n">
+        <v>36.22282159163963</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:42:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>65.61340278115887</v>
+      </c>
+      <c r="D102" t="n">
+        <v>65.61340278115888</v>
+      </c>
+      <c r="E102" t="n">
+        <v>40</v>
+      </c>
+      <c r="F102" t="n">
+        <v>40</v>
+      </c>
+      <c r="G102" t="n">
+        <v>25.61340278115887</v>
+      </c>
+      <c r="H102" t="n">
+        <v>25.61340278115888</v>
+      </c>
+      <c r="I102" t="n">
+        <v>656.0464020298768</v>
+      </c>
+      <c r="J102" t="n">
+        <v>656.0464020298775</v>
+      </c>
+      <c r="K102" t="n">
+        <v>36.22282159163963</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:43:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>61.86374843559684</v>
+      </c>
+      <c r="D103" t="n">
+        <v>61.86374843559684</v>
+      </c>
+      <c r="E103" t="n">
+        <v>40</v>
+      </c>
+      <c r="F103" t="n">
+        <v>40</v>
+      </c>
+      <c r="G103" t="n">
+        <v>21.86374843559684</v>
+      </c>
+      <c r="H103" t="n">
+        <v>21.86374843559684</v>
+      </c>
+      <c r="I103" t="n">
+        <v>478.0234956550632</v>
+      </c>
+      <c r="J103" t="n">
+        <v>478.0234956550632</v>
+      </c>
+      <c r="K103" t="n">
+        <v>30.92000956193459</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:44:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>61.86374843559684</v>
+      </c>
+      <c r="D104" t="n">
+        <v>61.86374843559684</v>
+      </c>
+      <c r="E104" t="n">
+        <v>40</v>
+      </c>
+      <c r="F104" t="n">
+        <v>40</v>
+      </c>
+      <c r="G104" t="n">
+        <v>21.86374843559684</v>
+      </c>
+      <c r="H104" t="n">
+        <v>21.86374843559684</v>
+      </c>
+      <c r="I104" t="n">
+        <v>478.0234956550632</v>
+      </c>
+      <c r="J104" t="n">
+        <v>478.0234956550632</v>
+      </c>
+      <c r="K104" t="n">
+        <v>30.92000956193459</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:45:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>56.83537143895128</v>
+      </c>
+      <c r="D105" t="n">
+        <v>56.83537143895128</v>
+      </c>
+      <c r="E105" t="n">
+        <v>40</v>
+      </c>
+      <c r="F105" t="n">
+        <v>40</v>
+      </c>
+      <c r="G105" t="n">
+        <v>16.83537143895128</v>
+      </c>
+      <c r="H105" t="n">
+        <v>16.83537143895128</v>
+      </c>
+      <c r="I105" t="n">
+        <v>283.4297314874566</v>
+      </c>
+      <c r="J105" t="n">
+        <v>283.4297314874566</v>
+      </c>
+      <c r="K105" t="n">
+        <v>23.80881061655355</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:46:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>56.83537143895128</v>
+      </c>
+      <c r="D106" t="n">
+        <v>56.83537143895128</v>
+      </c>
+      <c r="E106" t="n">
+        <v>40</v>
+      </c>
+      <c r="F106" t="n">
+        <v>40</v>
+      </c>
+      <c r="G106" t="n">
+        <v>16.83537143895128</v>
+      </c>
+      <c r="H106" t="n">
+        <v>16.83537143895128</v>
+      </c>
+      <c r="I106" t="n">
+        <v>283.4297314874566</v>
+      </c>
+      <c r="J106" t="n">
+        <v>283.4297314874566</v>
+      </c>
+      <c r="K106" t="n">
+        <v>23.80881061655355</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:04:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>53.36392729052783</v>
+      </c>
+      <c r="D107" t="n">
+        <v>53.36392729052783</v>
+      </c>
+      <c r="E107" t="n">
+        <v>40</v>
+      </c>
+      <c r="F107" t="n">
+        <v>40</v>
+      </c>
+      <c r="G107" t="n">
+        <v>13.36392729052783</v>
+      </c>
+      <c r="H107" t="n">
+        <v>13.36392729052783</v>
+      </c>
+      <c r="I107" t="n">
+        <v>178.5945526265146</v>
+      </c>
+      <c r="J107" t="n">
+        <v>178.5945526265144</v>
+      </c>
+      <c r="K107" t="n">
+        <v>18.89944722083239</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:05:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>45.20430774325964</v>
+      </c>
+      <c r="D108" t="n">
+        <v>45.20430774325964</v>
+      </c>
+      <c r="E108" t="n">
+        <v>40</v>
+      </c>
+      <c r="F108" t="n">
+        <v>40</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5.204307743259641</v>
+      </c>
+      <c r="H108" t="n">
+        <v>5.204307743259641</v>
+      </c>
+      <c r="I108" t="n">
+        <v>27.08481908655225</v>
+      </c>
+      <c r="J108" t="n">
+        <v>27.08481908655225</v>
+      </c>
+      <c r="K108" t="n">
+        <v>7.360002593281099</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:30:17 GMT-5</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>51.54769953543048</v>
+      </c>
+      <c r="D109" t="n">
+        <v>51.54769953543048</v>
+      </c>
+      <c r="E109" t="n">
+        <v>40</v>
+      </c>
+      <c r="F109" t="n">
+        <v>40</v>
+      </c>
+      <c r="G109" t="n">
+        <v>11.54769953543048</v>
+      </c>
+      <c r="H109" t="n">
+        <v>11.54769953543048</v>
+      </c>
+      <c r="I109" t="n">
+        <v>133.3493645605814</v>
+      </c>
+      <c r="J109" t="n">
+        <v>133.3493645605814</v>
+      </c>
+      <c r="K109" t="n">
+        <v>16.33091329721528</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:52:17 GMT-5</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>48.72715090313213</v>
+      </c>
+      <c r="D110" t="n">
+        <v>48.72715090313213</v>
+      </c>
+      <c r="E110" t="n">
+        <v>40</v>
+      </c>
+      <c r="F110" t="n">
+        <v>40</v>
+      </c>
+      <c r="G110" t="n">
+        <v>8.727150903132127</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8.727150903132127</v>
+      </c>
+      <c r="I110" t="n">
+        <v>76.1631628860399</v>
+      </c>
+      <c r="J110" t="n">
+        <v>76.1631628860399</v>
+      </c>
+      <c r="K110" t="n">
+        <v>12.34205516808606</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:53:17 GMT-5</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>F81F32F8A5D4</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>52.27401018224722</v>
+      </c>
+      <c r="D111" t="n">
+        <v>52.27401018224722</v>
+      </c>
+      <c r="E111" t="n">
+        <v>40</v>
+      </c>
+      <c r="F111" t="n">
+        <v>40</v>
+      </c>
+      <c r="G111" t="n">
+        <v>12.27401018224722</v>
+      </c>
+      <c r="H111" t="n">
+        <v>12.27401018224722</v>
+      </c>
+      <c r="I111" t="n">
+        <v>150.6513259539085</v>
+      </c>
+      <c r="J111" t="n">
+        <v>150.6513259539085</v>
+      </c>
+      <c r="K111" t="n">
+        <v>17.35807166443949</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
           <t>mié 02 dic 2020, 16:54:17 GMT-5</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>F81F32F8A5D4</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>6.164015709879037</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-9.999062448416836</v>
-      </c>
-      <c r="E71" t="n">
-        <v>48</v>
-      </c>
-      <c r="F71" t="n">
-        <v>-11</v>
-      </c>
-      <c r="G71" t="n">
-        <v>41.83598429012096</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1.000937551583164</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1750.249581523248</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.001875982169298</v>
-      </c>
-      <c r="K71" t="n">
-        <v>41.84795643165168</v>
+      <c r="C112" t="n">
+        <v>52.27401018224722</v>
+      </c>
+      <c r="D112" t="n">
+        <v>52.27401018224722</v>
+      </c>
+      <c r="E112" t="n">
+        <v>40</v>
+      </c>
+      <c r="F112" t="n">
+        <v>40</v>
+      </c>
+      <c r="G112" t="n">
+        <v>12.27401018224722</v>
+      </c>
+      <c r="H112" t="n">
+        <v>12.27401018224722</v>
+      </c>
+      <c r="I112" t="n">
+        <v>150.6513259539085</v>
+      </c>
+      <c r="J112" t="n">
+        <v>150.6513259539085</v>
+      </c>
+      <c r="K112" t="n">
+        <v>17.35807166443949</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:26:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>47.79216986802565</v>
+      </c>
+      <c r="D113" t="n">
+        <v>47.79216986802565</v>
+      </c>
+      <c r="E113" t="n">
+        <v>40</v>
+      </c>
+      <c r="F113" t="n">
+        <v>40</v>
+      </c>
+      <c r="G113" t="n">
+        <v>7.792169868025653</v>
+      </c>
+      <c r="H113" t="n">
+        <v>7.792169868025653</v>
+      </c>
+      <c r="I113" t="n">
+        <v>60.71791125216691</v>
+      </c>
+      <c r="J113" t="n">
+        <v>60.71791125216691</v>
+      </c>
+      <c r="K113" t="n">
+        <v>11.01979230767685</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:34:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>48.12452435303677</v>
+      </c>
+      <c r="D114" t="n">
+        <v>48.12452435303677</v>
+      </c>
+      <c r="E114" t="n">
+        <v>40</v>
+      </c>
+      <c r="F114" t="n">
+        <v>40</v>
+      </c>
+      <c r="G114" t="n">
+        <v>8.124524353036769</v>
+      </c>
+      <c r="H114" t="n">
+        <v>8.124524353036769</v>
+      </c>
+      <c r="I114" t="n">
+        <v>66.00789596308752</v>
+      </c>
+      <c r="J114" t="n">
+        <v>66.00789596308752</v>
+      </c>
+      <c r="K114" t="n">
+        <v>11.48981252789509</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:35:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="D115" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="E115" t="n">
+        <v>40</v>
+      </c>
+      <c r="F115" t="n">
+        <v>40</v>
+      </c>
+      <c r="G115" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="H115" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="I115" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="J115" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="K115" t="n">
+        <v>11.62050723203468</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:42:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>57.62134228667543</v>
+      </c>
+      <c r="D116" t="n">
+        <v>57.62134228667543</v>
+      </c>
+      <c r="E116" t="n">
+        <v>40</v>
+      </c>
+      <c r="F116" t="n">
+        <v>40</v>
+      </c>
+      <c r="G116" t="n">
+        <v>17.62134228667543</v>
+      </c>
+      <c r="H116" t="n">
+        <v>17.62134228667543</v>
+      </c>
+      <c r="I116" t="n">
+        <v>310.5117039841756</v>
+      </c>
+      <c r="J116" t="n">
+        <v>310.5117039841756</v>
+      </c>
+      <c r="K116" t="n">
+        <v>24.92034124903492</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:43:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>57.62134228667543</v>
+      </c>
+      <c r="D117" t="n">
+        <v>57.62134228667543</v>
+      </c>
+      <c r="E117" t="n">
+        <v>40</v>
+      </c>
+      <c r="F117" t="n">
+        <v>40</v>
+      </c>
+      <c r="G117" t="n">
+        <v>17.62134228667543</v>
+      </c>
+      <c r="H117" t="n">
+        <v>17.62134228667543</v>
+      </c>
+      <c r="I117" t="n">
+        <v>310.5117039841756</v>
+      </c>
+      <c r="J117" t="n">
+        <v>310.5117039841756</v>
+      </c>
+      <c r="K117" t="n">
+        <v>24.92034124903492</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:58:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>62.13563299211259</v>
+      </c>
+      <c r="D118" t="n">
+        <v>62.13563299211259</v>
+      </c>
+      <c r="E118" t="n">
+        <v>40</v>
+      </c>
+      <c r="F118" t="n">
+        <v>40</v>
+      </c>
+      <c r="G118" t="n">
+        <v>22.13563299211259</v>
+      </c>
+      <c r="H118" t="n">
+        <v>22.13563299211259</v>
+      </c>
+      <c r="I118" t="n">
+        <v>489.9862479615034</v>
+      </c>
+      <c r="J118" t="n">
+        <v>489.9862479615034</v>
+      </c>
+      <c r="K118" t="n">
+        <v>31.30451238915896</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:59:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>62.13563299211259</v>
+      </c>
+      <c r="D119" t="n">
+        <v>62.13563299211259</v>
+      </c>
+      <c r="E119" t="n">
+        <v>40</v>
+      </c>
+      <c r="F119" t="n">
+        <v>40</v>
+      </c>
+      <c r="G119" t="n">
+        <v>22.13563299211259</v>
+      </c>
+      <c r="H119" t="n">
+        <v>22.13563299211259</v>
+      </c>
+      <c r="I119" t="n">
+        <v>489.9862479615034</v>
+      </c>
+      <c r="J119" t="n">
+        <v>489.9862479615034</v>
+      </c>
+      <c r="K119" t="n">
+        <v>31.30451238915896</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:00:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>61.76215867009724</v>
+      </c>
+      <c r="D120" t="n">
+        <v>61.76215867009724</v>
+      </c>
+      <c r="E120" t="n">
+        <v>40</v>
+      </c>
+      <c r="F120" t="n">
+        <v>40</v>
+      </c>
+      <c r="G120" t="n">
+        <v>21.76215867009724</v>
+      </c>
+      <c r="H120" t="n">
+        <v>21.76215867009724</v>
+      </c>
+      <c r="I120" t="n">
+        <v>473.5915499824883</v>
+      </c>
+      <c r="J120" t="n">
+        <v>473.5915499824886</v>
+      </c>
+      <c r="K120" t="n">
+        <v>30.77633993776675</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:01:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>61.76215867009724</v>
+      </c>
+      <c r="D121" t="n">
+        <v>61.76215867009724</v>
+      </c>
+      <c r="E121" t="n">
+        <v>40</v>
+      </c>
+      <c r="F121" t="n">
+        <v>40</v>
+      </c>
+      <c r="G121" t="n">
+        <v>21.76215867009724</v>
+      </c>
+      <c r="H121" t="n">
+        <v>21.76215867009724</v>
+      </c>
+      <c r="I121" t="n">
+        <v>473.5915499824883</v>
+      </c>
+      <c r="J121" t="n">
+        <v>473.5915499824886</v>
+      </c>
+      <c r="K121" t="n">
+        <v>30.77633993776675</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:02:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>58.12965027002414</v>
+      </c>
+      <c r="D122" t="n">
+        <v>58.12965027002414</v>
+      </c>
+      <c r="E122" t="n">
+        <v>40</v>
+      </c>
+      <c r="F122" t="n">
+        <v>40</v>
+      </c>
+      <c r="G122" t="n">
+        <v>18.12965027002414</v>
+      </c>
+      <c r="H122" t="n">
+        <v>18.12965027002414</v>
+      </c>
+      <c r="I122" t="n">
+        <v>328.6842189133862</v>
+      </c>
+      <c r="J122" t="n">
+        <v>328.6842189133862</v>
+      </c>
+      <c r="K122" t="n">
+        <v>25.63919729294918</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:03:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>58.12965027002414</v>
+      </c>
+      <c r="D123" t="n">
+        <v>58.12965027002414</v>
+      </c>
+      <c r="E123" t="n">
+        <v>40</v>
+      </c>
+      <c r="F123" t="n">
+        <v>40</v>
+      </c>
+      <c r="G123" t="n">
+        <v>18.12965027002414</v>
+      </c>
+      <c r="H123" t="n">
+        <v>18.12965027002414</v>
+      </c>
+      <c r="I123" t="n">
+        <v>328.6842189133862</v>
+      </c>
+      <c r="J123" t="n">
+        <v>328.6842189133862</v>
+      </c>
+      <c r="K123" t="n">
+        <v>25.63919729294918</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:31:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>25.27199504247042</v>
+      </c>
+      <c r="D124" t="n">
+        <v>25.27199504247042</v>
+      </c>
+      <c r="E124" t="n">
+        <v>40</v>
+      </c>
+      <c r="F124" t="n">
+        <v>40</v>
+      </c>
+      <c r="G124" t="n">
+        <v>14.72800495752958</v>
+      </c>
+      <c r="H124" t="n">
+        <v>14.72800495752958</v>
+      </c>
+      <c r="I124" t="n">
+        <v>216.914130029016</v>
+      </c>
+      <c r="J124" t="n">
+        <v>216.914130029016</v>
+      </c>
+      <c r="K124" t="n">
+        <v>20.82854435763652</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:35:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="D125" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="E125" t="n">
+        <v>40</v>
+      </c>
+      <c r="F125" t="n">
+        <v>40</v>
+      </c>
+      <c r="G125" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="H125" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="I125" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="J125" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="K125" t="n">
+        <v>11.62050723203468</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:36:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="D126" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="E126" t="n">
+        <v>40</v>
+      </c>
+      <c r="F126" t="n">
+        <v>40</v>
+      </c>
+      <c r="G126" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="H126" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="I126" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="J126" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="K126" t="n">
+        <v>11.62050723203468</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 16:37:09 GMT-5</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>F81F32F8A61E</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="D127" t="n">
+        <v>48.21693946459904</v>
+      </c>
+      <c r="E127" t="n">
+        <v>40</v>
+      </c>
+      <c r="F127" t="n">
+        <v>40</v>
+      </c>
+      <c r="G127" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8.216939464599044</v>
+      </c>
+      <c r="I127" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="J127" t="n">
+        <v>67.51809416488521</v>
+      </c>
+      <c r="K127" t="n">
+        <v>11.62050723203468</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:34:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>69.74220943234099</v>
+      </c>
+      <c r="D128" t="n">
+        <v>14.61196230929304</v>
+      </c>
+      <c r="E128" t="n">
+        <v>70.52200000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>13.821</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.7797905676590204</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.790962309293036</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.6080733294099774</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.6256213747221724</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1.110718102910072</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:35:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>72.31591490403824</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.7026810410567</v>
+      </c>
+      <c r="E129" t="n">
+        <v>70.52200000000001</v>
+      </c>
+      <c r="F129" t="n">
+        <v>13.821</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.793914904038232</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.118318958943304</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3.218130682930499</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.250637293932035</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2.113946067633357</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:36:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>74.60364424003917</v>
+      </c>
+      <c r="D130" t="n">
+        <v>14.88043340981879</v>
+      </c>
+      <c r="E130" t="n">
+        <v>70.52200000000001</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14.821</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4.081644240039168</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.05943340981879253</v>
+      </c>
+      <c r="I130" t="n">
+        <v>16.65981970224492</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.003532330202688544</v>
+      </c>
+      <c r="K130" t="n">
+        <v>4.082076926326549</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:37:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>56.15433271590297</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3.948692184430278</v>
+      </c>
+      <c r="E131" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G131" t="n">
+        <v>7.566667284097029</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.6846078155697226</v>
+      </c>
+      <c r="I131" t="n">
+        <v>57.25445378822431</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.4686878611391473</v>
+      </c>
+      <c r="K131" t="n">
+        <v>7.597574721538674</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:38:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>52.90183517130092</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.235074503373543</v>
+      </c>
+      <c r="E132" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G132" t="n">
+        <v>10.81916482869908</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.601774503373543</v>
+      </c>
+      <c r="I132" t="n">
+        <v>117.0543275905592</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.565681559657559</v>
+      </c>
+      <c r="K132" t="n">
+        <v>10.93709326787592</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:39:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>52.90183517130092</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.235074503373543</v>
+      </c>
+      <c r="E133" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G133" t="n">
+        <v>10.81916482869908</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1.601774503373543</v>
+      </c>
+      <c r="I133" t="n">
+        <v>117.0543275905592</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.565681559657559</v>
+      </c>
+      <c r="K133" t="n">
+        <v>10.93709326787592</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:40:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>52.67142247303302</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8.341495622998126</v>
+      </c>
+      <c r="E134" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G134" t="n">
+        <v>11.04957752696698</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3.708195622998126</v>
+      </c>
+      <c r="I134" t="n">
+        <v>122.0931635244537</v>
+      </c>
+      <c r="J134" t="n">
+        <v>13.75071477842246</v>
+      </c>
+      <c r="K134" t="n">
+        <v>11.65520820504191</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:41:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>52.97479482961834</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8.008666648529177</v>
+      </c>
+      <c r="E135" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G135" t="n">
+        <v>10.74620517038166</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3.375366648529177</v>
+      </c>
+      <c r="I135" t="n">
+        <v>115.4809255639375</v>
+      </c>
+      <c r="J135" t="n">
+        <v>11.39310001200309</v>
+      </c>
+      <c r="K135" t="n">
+        <v>11.26383707161732</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:42:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>51.70640336574716</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.79495069169473</v>
+      </c>
+      <c r="E136" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G136" t="n">
+        <v>12.01459663425284</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2.16165069169473</v>
+      </c>
+      <c r="I136" t="n">
+        <v>144.3505322837997</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4.672733712904304</v>
+      </c>
+      <c r="K136" t="n">
+        <v>12.20750859089208</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:43:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>63.58608918137795</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5.34785658385562</v>
+      </c>
+      <c r="E137" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.1349108186220462</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.7145565838556198</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.01820092898127066</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.5105911115314135</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.7271808856898565</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:46:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>56.18962649650189</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.468080180011698</v>
+      </c>
+      <c r="E138" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G138" t="n">
+        <v>7.531373503498109</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.834780180011697</v>
+      </c>
+      <c r="I138" t="n">
+        <v>56.72158684919339</v>
+      </c>
+      <c r="J138" t="n">
+        <v>3.366418308963757</v>
+      </c>
+      <c r="K138" t="n">
+        <v>7.75164531942459</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>mié 02 dic 2020, 15:47:11 GMT-5</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>F81F32F89FB4</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>55.82377054109673</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.711616494172011</v>
+      </c>
+      <c r="E139" t="n">
+        <v>63.721</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4.6333</v>
+      </c>
+      <c r="G139" t="n">
+        <v>7.897229458903269</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2.078316494172011</v>
+      </c>
+      <c r="I139" t="n">
+        <v>62.36623312656961</v>
+      </c>
+      <c r="J139" t="n">
+        <v>4.319399449947438</v>
+      </c>
+      <c r="K139" t="n">
+        <v>8.16612714672733</v>
       </c>
     </row>
   </sheetData>

--- a/trilateration/triangulacionLogD.xlsx
+++ b/trilateration/triangulacionLogD.xlsx
@@ -490,31 +490,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48.10138644408579</v>
+        <v>69.40621798896434</v>
       </c>
       <c r="D2" t="n">
-        <v>48.10138644408579</v>
+        <v>15.58927753632791</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G2" t="n">
-        <v>8.10138644408579</v>
+        <v>1.115782011035662</v>
       </c>
       <c r="H2" t="n">
-        <v>8.10138644408579</v>
+        <v>0.2317224636720887</v>
       </c>
       <c r="I2" t="n">
-        <v>65.632462316417</v>
+        <v>1.244969496150787</v>
       </c>
       <c r="J2" t="n">
-        <v>65.632462316417</v>
+        <v>0.05369530017026247</v>
       </c>
       <c r="K2" t="n">
-        <v>11.45709058325167</v>
+        <v>1.139589749129506</v>
       </c>
     </row>
     <row r="3">
@@ -529,31 +529,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48.10138644408579</v>
+        <v>69.40621798896434</v>
       </c>
       <c r="D3" t="n">
-        <v>48.10138644408579</v>
+        <v>15.58927753632791</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G3" t="n">
-        <v>8.10138644408579</v>
+        <v>1.115782011035662</v>
       </c>
       <c r="H3" t="n">
-        <v>8.10138644408579</v>
+        <v>0.2317224636720887</v>
       </c>
       <c r="I3" t="n">
-        <v>65.632462316417</v>
+        <v>1.244969496150787</v>
       </c>
       <c r="J3" t="n">
-        <v>65.632462316417</v>
+        <v>0.05369530017026247</v>
       </c>
       <c r="K3" t="n">
-        <v>11.45709058325167</v>
+        <v>1.139589749129506</v>
       </c>
     </row>
     <row r="4">
@@ -568,31 +568,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48.10138644408579</v>
+        <v>69.84348834668141</v>
       </c>
       <c r="D4" t="n">
-        <v>48.10138644408579</v>
+        <v>15.38105742952996</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G4" t="n">
-        <v>8.10138644408579</v>
+        <v>0.6785116533185942</v>
       </c>
       <c r="H4" t="n">
-        <v>8.10138644408579</v>
+        <v>0.439942570470043</v>
       </c>
       <c r="I4" t="n">
-        <v>65.632462316417</v>
+        <v>0.4603780636891321</v>
       </c>
       <c r="J4" t="n">
-        <v>65.632462316417</v>
+        <v>0.1935494653117888</v>
       </c>
       <c r="K4" t="n">
-        <v>11.45709058325167</v>
+        <v>0.8086578565752768</v>
       </c>
     </row>
     <row r="5">
@@ -607,31 +607,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48.10138644408579</v>
+        <v>69.40621798896434</v>
       </c>
       <c r="D5" t="n">
-        <v>48.10138644408579</v>
+        <v>15.58927753632791</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G5" t="n">
-        <v>8.10138644408579</v>
+        <v>1.115782011035662</v>
       </c>
       <c r="H5" t="n">
-        <v>8.10138644408579</v>
+        <v>0.2317224636720887</v>
       </c>
       <c r="I5" t="n">
-        <v>65.632462316417</v>
+        <v>1.244969496150787</v>
       </c>
       <c r="J5" t="n">
-        <v>65.632462316417</v>
+        <v>0.05369530017026247</v>
       </c>
       <c r="K5" t="n">
-        <v>11.45709058325167</v>
+        <v>1.139589749129506</v>
       </c>
     </row>
     <row r="6">
@@ -646,31 +646,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>48.72715090313213</v>
+        <v>70.24342029573586</v>
       </c>
       <c r="D6" t="n">
-        <v>48.72715090313213</v>
+        <v>14.77230591963416</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G6" t="n">
-        <v>8.727150903132127</v>
+        <v>0.2785797042641462</v>
       </c>
       <c r="H6" t="n">
-        <v>8.727150903132127</v>
+        <v>1.048694080365838</v>
       </c>
       <c r="I6" t="n">
-        <v>76.1631628860399</v>
+        <v>0.07760665162789918</v>
       </c>
       <c r="J6" t="n">
-        <v>76.1631628860399</v>
+        <v>1.09975927419435</v>
       </c>
       <c r="K6" t="n">
-        <v>12.34205516808606</v>
+        <v>1.085064940831769</v>
       </c>
     </row>
     <row r="7">
@@ -688,28 +688,28 @@
         <v>62.36381786288057</v>
       </c>
       <c r="D7" t="n">
-        <v>62.36381786288057</v>
+        <v>5.228921755900238</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G7" t="n">
-        <v>22.36381786288057</v>
+        <v>1.35718213711943</v>
       </c>
       <c r="H7" t="n">
-        <v>22.36381786288057</v>
+        <v>0.5959217559002381</v>
       </c>
       <c r="I7" t="n">
-        <v>500.1403494040959</v>
+        <v>1.841943353316064</v>
       </c>
       <c r="J7" t="n">
-        <v>500.1403494040959</v>
+        <v>0.355122739155223</v>
       </c>
       <c r="K7" t="n">
-        <v>31.62721452812738</v>
+        <v>1.482250347435037</v>
       </c>
     </row>
     <row r="8">
@@ -727,28 +727,28 @@
         <v>62.36381786288057</v>
       </c>
       <c r="D8" t="n">
-        <v>62.36381786288057</v>
+        <v>5.228921755900238</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G8" t="n">
-        <v>22.36381786288057</v>
+        <v>1.35718213711943</v>
       </c>
       <c r="H8" t="n">
-        <v>22.36381786288057</v>
+        <v>0.5959217559002381</v>
       </c>
       <c r="I8" t="n">
-        <v>500.1403494040959</v>
+        <v>1.841943353316064</v>
       </c>
       <c r="J8" t="n">
-        <v>500.1403494040959</v>
+        <v>0.355122739155223</v>
       </c>
       <c r="K8" t="n">
-        <v>31.62721452812738</v>
+        <v>1.482250347435037</v>
       </c>
     </row>
     <row r="9">
@@ -766,28 +766,28 @@
         <v>65.61340278115887</v>
       </c>
       <c r="D9" t="n">
-        <v>65.61340278115888</v>
+        <v>5.772238413346204</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G9" t="n">
-        <v>25.61340278115887</v>
+        <v>1.892402781158872</v>
       </c>
       <c r="H9" t="n">
-        <v>25.61340278115888</v>
+        <v>1.139238413346204</v>
       </c>
       <c r="I9" t="n">
-        <v>656.0464020298768</v>
+        <v>3.581188286137832</v>
       </c>
       <c r="J9" t="n">
-        <v>656.0464020298775</v>
+        <v>1.297864162443577</v>
       </c>
       <c r="K9" t="n">
-        <v>36.22282159163963</v>
+        <v>2.20885772483911</v>
       </c>
     </row>
     <row r="10">
@@ -805,28 +805,28 @@
         <v>65.61340278115887</v>
       </c>
       <c r="D10" t="n">
-        <v>65.61340278115888</v>
+        <v>5.772238413346204</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G10" t="n">
-        <v>25.61340278115887</v>
+        <v>1.892402781158872</v>
       </c>
       <c r="H10" t="n">
-        <v>25.61340278115888</v>
+        <v>1.139238413346204</v>
       </c>
       <c r="I10" t="n">
-        <v>656.0464020298768</v>
+        <v>3.581188286137832</v>
       </c>
       <c r="J10" t="n">
-        <v>656.0464020298775</v>
+        <v>1.297864162443577</v>
       </c>
       <c r="K10" t="n">
-        <v>36.22282159163963</v>
+        <v>2.20885772483911</v>
       </c>
     </row>
     <row r="11">
@@ -844,28 +844,28 @@
         <v>61.86374843559684</v>
       </c>
       <c r="D11" t="n">
-        <v>61.86374843559684</v>
+        <v>4.84451180199876</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G11" t="n">
-        <v>21.86374843559684</v>
+        <v>1.857251564403157</v>
       </c>
       <c r="H11" t="n">
-        <v>21.86374843559684</v>
+        <v>0.2115118019987596</v>
       </c>
       <c r="I11" t="n">
-        <v>478.0234956550632</v>
+        <v>3.449383373477974</v>
       </c>
       <c r="J11" t="n">
-        <v>478.0234956550632</v>
+        <v>0.0447372423847625</v>
       </c>
       <c r="K11" t="n">
-        <v>30.92000956193459</v>
+        <v>1.869256701435824</v>
       </c>
     </row>
     <row r="12">
@@ -880,31 +880,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>61.86374843559684</v>
+        <v>64.22148577180987</v>
       </c>
       <c r="D12" t="n">
-        <v>61.86374843559684</v>
+        <v>4.84451180199876</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G12" t="n">
-        <v>21.86374843559684</v>
+        <v>0.5004857718098705</v>
       </c>
       <c r="H12" t="n">
-        <v>21.86374843559684</v>
+        <v>0.2115118019987596</v>
       </c>
       <c r="I12" t="n">
-        <v>478.0234956550632</v>
+        <v>0.2504860077841218</v>
       </c>
       <c r="J12" t="n">
-        <v>478.0234956550632</v>
+        <v>0.0447372423847625</v>
       </c>
       <c r="K12" t="n">
-        <v>30.92000956193459</v>
+        <v>0.5433445041305601</v>
       </c>
     </row>
     <row r="13">
@@ -919,31 +919,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>56.83537143895128</v>
+        <v>65.25071230149479</v>
       </c>
       <c r="D13" t="n">
-        <v>56.83537143895128</v>
+        <v>4.832990621412938</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G13" t="n">
-        <v>16.83537143895128</v>
+        <v>1.52971230149479</v>
       </c>
       <c r="H13" t="n">
-        <v>16.83537143895128</v>
+        <v>0.1999906214129377</v>
       </c>
       <c r="I13" t="n">
-        <v>283.4297314874566</v>
+        <v>2.340019725344487</v>
       </c>
       <c r="J13" t="n">
-        <v>283.4297314874566</v>
+        <v>0.03999624865313296</v>
       </c>
       <c r="K13" t="n">
-        <v>23.80881061655355</v>
+        <v>1.542730039247833</v>
       </c>
     </row>
     <row r="14">
@@ -958,31 +958,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>56.83537143895128</v>
+        <v>65.25071230149479</v>
       </c>
       <c r="D14" t="n">
-        <v>56.83537143895128</v>
+        <v>4.832990621412938</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G14" t="n">
-        <v>16.83537143895128</v>
+        <v>1.52971230149479</v>
       </c>
       <c r="H14" t="n">
-        <v>16.83537143895128</v>
+        <v>0.1999906214129377</v>
       </c>
       <c r="I14" t="n">
-        <v>283.4297314874566</v>
+        <v>2.340019725344487</v>
       </c>
       <c r="J14" t="n">
-        <v>283.4297314874566</v>
+        <v>0.03999624865313296</v>
       </c>
       <c r="K14" t="n">
-        <v>23.80881061655355</v>
+        <v>1.542730039247833</v>
       </c>
     </row>
     <row r="15">
@@ -997,31 +997,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>53.36392729052783</v>
+        <v>7.978310017486672</v>
       </c>
       <c r="D15" t="n">
-        <v>53.36392729052783</v>
+        <v>7.978310017486665</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>13.36392729052783</v>
+        <v>2.021689982513328</v>
       </c>
       <c r="H15" t="n">
-        <v>13.36392729052783</v>
+        <v>2.021689982513335</v>
       </c>
       <c r="I15" t="n">
-        <v>178.5945526265146</v>
+        <v>4.08723038539474</v>
       </c>
       <c r="J15" t="n">
-        <v>178.5945526265144</v>
+        <v>4.087230385394768</v>
       </c>
       <c r="K15" t="n">
-        <v>18.89944722083239</v>
+        <v>2.859101392184179</v>
       </c>
     </row>
     <row r="16">
@@ -1036,31 +1036,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>45.20430774325964</v>
+        <v>10.79616916728051</v>
       </c>
       <c r="D16" t="n">
-        <v>45.20430774325964</v>
+        <v>10.79616916728051</v>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>5.204307743259641</v>
+        <v>0.7961691672805138</v>
       </c>
       <c r="H16" t="n">
-        <v>5.204307743259641</v>
+        <v>0.7961691672805138</v>
       </c>
       <c r="I16" t="n">
-        <v>27.08481908655225</v>
+        <v>0.6338853429281468</v>
       </c>
       <c r="J16" t="n">
-        <v>27.08481908655225</v>
+        <v>0.6338853429281468</v>
       </c>
       <c r="K16" t="n">
-        <v>7.360002593281099</v>
+        <v>1.125953234311396</v>
       </c>
     </row>
     <row r="17">
@@ -1075,31 +1075,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>51.54769953543048</v>
+        <v>9.786713679441151</v>
       </c>
       <c r="D17" t="n">
-        <v>51.54769953543048</v>
+        <v>9.786713679441151</v>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>11.54769953543048</v>
+        <v>0.2132863205588489</v>
       </c>
       <c r="H17" t="n">
-        <v>11.54769953543048</v>
+        <v>0.2132863205588489</v>
       </c>
       <c r="I17" t="n">
-        <v>133.3493645605814</v>
+        <v>0.04549105453753204</v>
       </c>
       <c r="J17" t="n">
-        <v>133.3493645605814</v>
+        <v>0.04549105453753204</v>
       </c>
       <c r="K17" t="n">
-        <v>16.33091329721528</v>
+        <v>0.3016324072029796</v>
       </c>
     </row>
     <row r="18">
@@ -1114,31 +1114,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>48.72715090313213</v>
+        <v>10.86002479498526</v>
       </c>
       <c r="D18" t="n">
-        <v>48.72715090313213</v>
+        <v>10.86002479498526</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>8.727150903132127</v>
+        <v>0.8600247949852573</v>
       </c>
       <c r="H18" t="n">
-        <v>8.727150903132127</v>
+        <v>0.8600247949852573</v>
       </c>
       <c r="I18" t="n">
-        <v>76.1631628860399</v>
+        <v>0.7396426479894338</v>
       </c>
       <c r="J18" t="n">
-        <v>76.1631628860399</v>
+        <v>0.7396426479894338</v>
       </c>
       <c r="K18" t="n">
-        <v>12.34205516808606</v>
+        <v>1.216258729045291</v>
       </c>
     </row>
     <row r="19">
@@ -1153,31 +1153,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>52.27401018224722</v>
+        <v>12.32149607801811</v>
       </c>
       <c r="D19" t="n">
-        <v>52.27401018224722</v>
+        <v>12.32149607801811</v>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>12.27401018224722</v>
+        <v>2.321496078018107</v>
       </c>
       <c r="H19" t="n">
-        <v>12.27401018224722</v>
+        <v>2.321496078018109</v>
       </c>
       <c r="I19" t="n">
-        <v>150.6513259539085</v>
+        <v>5.389344040253454</v>
       </c>
       <c r="J19" t="n">
-        <v>150.6513259539085</v>
+        <v>5.389344040253462</v>
       </c>
       <c r="K19" t="n">
-        <v>17.35807166443949</v>
+        <v>3.283091238529158</v>
       </c>
     </row>
     <row r="20">
@@ -1192,31 +1192,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>52.27401018224722</v>
+        <v>13.25563290334519</v>
       </c>
       <c r="D20" t="n">
-        <v>52.27401018224722</v>
+        <v>13.2556329033452</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>12.27401018224722</v>
+        <v>3.255632903345195</v>
       </c>
       <c r="H20" t="n">
-        <v>12.27401018224722</v>
+        <v>3.255632903345198</v>
       </c>
       <c r="I20" t="n">
-        <v>150.6513259539085</v>
+        <v>10.59914560134386</v>
       </c>
       <c r="J20" t="n">
-        <v>150.6513259539085</v>
+        <v>10.59914560134388</v>
       </c>
       <c r="K20" t="n">
-        <v>17.35807166443949</v>
+        <v>4.604160206018872</v>
       </c>
     </row>
     <row r="21">
@@ -2284,31 +2284,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>48.10138644408579</v>
+        <v>69.40621798896434</v>
       </c>
       <c r="D48" t="n">
-        <v>48.10138644408579</v>
+        <v>15.58927753632791</v>
       </c>
       <c r="E48" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G48" t="n">
-        <v>8.10138644408579</v>
+        <v>1.115782011035662</v>
       </c>
       <c r="H48" t="n">
-        <v>8.10138644408579</v>
+        <v>0.2317224636720887</v>
       </c>
       <c r="I48" t="n">
-        <v>65.632462316417</v>
+        <v>1.244969496150787</v>
       </c>
       <c r="J48" t="n">
-        <v>65.632462316417</v>
+        <v>0.05369530017026247</v>
       </c>
       <c r="K48" t="n">
-        <v>11.45709058325167</v>
+        <v>1.139589749129506</v>
       </c>
     </row>
     <row r="49">
@@ -2323,31 +2323,31 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>48.10138644408579</v>
+        <v>69.40621798896434</v>
       </c>
       <c r="D49" t="n">
-        <v>48.10138644408579</v>
+        <v>15.58927753632791</v>
       </c>
       <c r="E49" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G49" t="n">
-        <v>8.10138644408579</v>
+        <v>1.115782011035662</v>
       </c>
       <c r="H49" t="n">
-        <v>8.10138644408579</v>
+        <v>0.2317224636720887</v>
       </c>
       <c r="I49" t="n">
-        <v>65.632462316417</v>
+        <v>1.244969496150787</v>
       </c>
       <c r="J49" t="n">
-        <v>65.632462316417</v>
+        <v>0.05369530017026247</v>
       </c>
       <c r="K49" t="n">
-        <v>11.45709058325167</v>
+        <v>1.139589749129506</v>
       </c>
     </row>
     <row r="50">
@@ -2362,31 +2362,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>48.10138644408579</v>
+        <v>69.84348834668141</v>
       </c>
       <c r="D50" t="n">
-        <v>48.10138644408579</v>
+        <v>15.38105742952996</v>
       </c>
       <c r="E50" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G50" t="n">
-        <v>8.10138644408579</v>
+        <v>0.6785116533185942</v>
       </c>
       <c r="H50" t="n">
-        <v>8.10138644408579</v>
+        <v>0.439942570470043</v>
       </c>
       <c r="I50" t="n">
-        <v>65.632462316417</v>
+        <v>0.4603780636891321</v>
       </c>
       <c r="J50" t="n">
-        <v>65.632462316417</v>
+        <v>0.1935494653117888</v>
       </c>
       <c r="K50" t="n">
-        <v>11.45709058325167</v>
+        <v>0.8086578565752768</v>
       </c>
     </row>
     <row r="51">
@@ -2401,31 +2401,31 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>48.10138644408579</v>
+        <v>69.40621798896434</v>
       </c>
       <c r="D51" t="n">
-        <v>48.10138644408579</v>
+        <v>15.58927753632791</v>
       </c>
       <c r="E51" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G51" t="n">
-        <v>8.10138644408579</v>
+        <v>1.115782011035662</v>
       </c>
       <c r="H51" t="n">
-        <v>8.10138644408579</v>
+        <v>0.2317224636720887</v>
       </c>
       <c r="I51" t="n">
-        <v>65.632462316417</v>
+        <v>1.244969496150787</v>
       </c>
       <c r="J51" t="n">
-        <v>65.632462316417</v>
+        <v>0.05369530017026247</v>
       </c>
       <c r="K51" t="n">
-        <v>11.45709058325167</v>
+        <v>1.139589749129506</v>
       </c>
     </row>
     <row r="52">
@@ -2440,31 +2440,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>48.72715090313213</v>
+        <v>70.24342029573586</v>
       </c>
       <c r="D52" t="n">
-        <v>48.72715090313213</v>
+        <v>14.77230591963416</v>
       </c>
       <c r="E52" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G52" t="n">
-        <v>8.727150903132127</v>
+        <v>0.2785797042641462</v>
       </c>
       <c r="H52" t="n">
-        <v>8.727150903132127</v>
+        <v>1.048694080365838</v>
       </c>
       <c r="I52" t="n">
-        <v>76.1631628860399</v>
+        <v>0.07760665162789918</v>
       </c>
       <c r="J52" t="n">
-        <v>76.1631628860399</v>
+        <v>1.09975927419435</v>
       </c>
       <c r="K52" t="n">
-        <v>12.34205516808606</v>
+        <v>1.085064940831769</v>
       </c>
     </row>
     <row r="53">
@@ -2482,28 +2482,28 @@
         <v>62.36381786288057</v>
       </c>
       <c r="D53" t="n">
-        <v>62.36381786288057</v>
+        <v>5.228921755900238</v>
       </c>
       <c r="E53" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F53" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G53" t="n">
-        <v>22.36381786288057</v>
+        <v>1.35718213711943</v>
       </c>
       <c r="H53" t="n">
-        <v>22.36381786288057</v>
+        <v>0.5959217559002381</v>
       </c>
       <c r="I53" t="n">
-        <v>500.1403494040959</v>
+        <v>1.841943353316064</v>
       </c>
       <c r="J53" t="n">
-        <v>500.1403494040959</v>
+        <v>0.355122739155223</v>
       </c>
       <c r="K53" t="n">
-        <v>31.62721452812738</v>
+        <v>1.482250347435037</v>
       </c>
     </row>
     <row r="54">
@@ -2521,28 +2521,28 @@
         <v>62.36381786288057</v>
       </c>
       <c r="D54" t="n">
-        <v>62.36381786288057</v>
+        <v>5.228921755900238</v>
       </c>
       <c r="E54" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F54" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G54" t="n">
-        <v>22.36381786288057</v>
+        <v>1.35718213711943</v>
       </c>
       <c r="H54" t="n">
-        <v>22.36381786288057</v>
+        <v>0.5959217559002381</v>
       </c>
       <c r="I54" t="n">
-        <v>500.1403494040959</v>
+        <v>1.841943353316064</v>
       </c>
       <c r="J54" t="n">
-        <v>500.1403494040959</v>
+        <v>0.355122739155223</v>
       </c>
       <c r="K54" t="n">
-        <v>31.62721452812738</v>
+        <v>1.482250347435037</v>
       </c>
     </row>
     <row r="55">
@@ -2560,28 +2560,28 @@
         <v>65.61340278115887</v>
       </c>
       <c r="D55" t="n">
-        <v>65.61340278115888</v>
+        <v>5.772238413346204</v>
       </c>
       <c r="E55" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F55" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G55" t="n">
-        <v>25.61340278115887</v>
+        <v>1.892402781158872</v>
       </c>
       <c r="H55" t="n">
-        <v>25.61340278115888</v>
+        <v>1.139238413346204</v>
       </c>
       <c r="I55" t="n">
-        <v>656.0464020298768</v>
+        <v>3.581188286137832</v>
       </c>
       <c r="J55" t="n">
-        <v>656.0464020298775</v>
+        <v>1.297864162443577</v>
       </c>
       <c r="K55" t="n">
-        <v>36.22282159163963</v>
+        <v>2.20885772483911</v>
       </c>
     </row>
     <row r="56">
@@ -2599,28 +2599,28 @@
         <v>65.61340278115887</v>
       </c>
       <c r="D56" t="n">
-        <v>65.61340278115888</v>
+        <v>5.772238413346204</v>
       </c>
       <c r="E56" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F56" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G56" t="n">
-        <v>25.61340278115887</v>
+        <v>1.892402781158872</v>
       </c>
       <c r="H56" t="n">
-        <v>25.61340278115888</v>
+        <v>1.139238413346204</v>
       </c>
       <c r="I56" t="n">
-        <v>656.0464020298768</v>
+        <v>3.581188286137832</v>
       </c>
       <c r="J56" t="n">
-        <v>656.0464020298775</v>
+        <v>1.297864162443577</v>
       </c>
       <c r="K56" t="n">
-        <v>36.22282159163963</v>
+        <v>2.20885772483911</v>
       </c>
     </row>
     <row r="57">
@@ -2638,28 +2638,28 @@
         <v>61.86374843559684</v>
       </c>
       <c r="D57" t="n">
-        <v>61.86374843559684</v>
+        <v>4.84451180199876</v>
       </c>
       <c r="E57" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F57" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G57" t="n">
-        <v>21.86374843559684</v>
+        <v>1.857251564403157</v>
       </c>
       <c r="H57" t="n">
-        <v>21.86374843559684</v>
+        <v>0.2115118019987596</v>
       </c>
       <c r="I57" t="n">
-        <v>478.0234956550632</v>
+        <v>3.449383373477974</v>
       </c>
       <c r="J57" t="n">
-        <v>478.0234956550632</v>
+        <v>0.0447372423847625</v>
       </c>
       <c r="K57" t="n">
-        <v>30.92000956193459</v>
+        <v>1.869256701435824</v>
       </c>
     </row>
     <row r="58">
@@ -2674,31 +2674,31 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>61.86374843559684</v>
+        <v>64.22148577180987</v>
       </c>
       <c r="D58" t="n">
-        <v>61.86374843559684</v>
+        <v>4.84451180199876</v>
       </c>
       <c r="E58" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F58" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G58" t="n">
-        <v>21.86374843559684</v>
+        <v>0.5004857718098705</v>
       </c>
       <c r="H58" t="n">
-        <v>21.86374843559684</v>
+        <v>0.2115118019987596</v>
       </c>
       <c r="I58" t="n">
-        <v>478.0234956550632</v>
+        <v>0.2504860077841218</v>
       </c>
       <c r="J58" t="n">
-        <v>478.0234956550632</v>
+        <v>0.0447372423847625</v>
       </c>
       <c r="K58" t="n">
-        <v>30.92000956193459</v>
+        <v>0.5433445041305601</v>
       </c>
     </row>
     <row r="59">
@@ -2713,31 +2713,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>56.83537143895128</v>
+        <v>65.25071230149479</v>
       </c>
       <c r="D59" t="n">
-        <v>56.83537143895128</v>
+        <v>4.832990621412938</v>
       </c>
       <c r="E59" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F59" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G59" t="n">
-        <v>16.83537143895128</v>
+        <v>1.52971230149479</v>
       </c>
       <c r="H59" t="n">
-        <v>16.83537143895128</v>
+        <v>0.1999906214129377</v>
       </c>
       <c r="I59" t="n">
-        <v>283.4297314874566</v>
+        <v>2.340019725344487</v>
       </c>
       <c r="J59" t="n">
-        <v>283.4297314874566</v>
+        <v>0.03999624865313296</v>
       </c>
       <c r="K59" t="n">
-        <v>23.80881061655355</v>
+        <v>1.542730039247833</v>
       </c>
     </row>
     <row r="60">
@@ -2752,31 +2752,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>56.83537143895128</v>
+        <v>65.25071230149479</v>
       </c>
       <c r="D60" t="n">
-        <v>56.83537143895128</v>
+        <v>4.832990621412938</v>
       </c>
       <c r="E60" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F60" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G60" t="n">
-        <v>16.83537143895128</v>
+        <v>1.52971230149479</v>
       </c>
       <c r="H60" t="n">
-        <v>16.83537143895128</v>
+        <v>0.1999906214129377</v>
       </c>
       <c r="I60" t="n">
-        <v>283.4297314874566</v>
+        <v>2.340019725344487</v>
       </c>
       <c r="J60" t="n">
-        <v>283.4297314874566</v>
+        <v>0.03999624865313296</v>
       </c>
       <c r="K60" t="n">
-        <v>23.80881061655355</v>
+        <v>1.542730039247833</v>
       </c>
     </row>
     <row r="61">
@@ -2791,31 +2791,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>53.36392729052783</v>
+        <v>7.978310017486672</v>
       </c>
       <c r="D61" t="n">
-        <v>53.36392729052783</v>
+        <v>7.978310017486665</v>
       </c>
       <c r="E61" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>13.36392729052783</v>
+        <v>2.021689982513328</v>
       </c>
       <c r="H61" t="n">
-        <v>13.36392729052783</v>
+        <v>2.021689982513335</v>
       </c>
       <c r="I61" t="n">
-        <v>178.5945526265146</v>
+        <v>4.08723038539474</v>
       </c>
       <c r="J61" t="n">
-        <v>178.5945526265144</v>
+        <v>4.087230385394768</v>
       </c>
       <c r="K61" t="n">
-        <v>18.89944722083239</v>
+        <v>2.859101392184179</v>
       </c>
     </row>
     <row r="62">
@@ -2830,31 +2830,31 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>45.20430774325964</v>
+        <v>10.79616916728051</v>
       </c>
       <c r="D62" t="n">
-        <v>45.20430774325964</v>
+        <v>10.79616916728051</v>
       </c>
       <c r="E62" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>5.204307743259641</v>
+        <v>0.7961691672805138</v>
       </c>
       <c r="H62" t="n">
-        <v>5.204307743259641</v>
+        <v>0.7961691672805138</v>
       </c>
       <c r="I62" t="n">
-        <v>27.08481908655225</v>
+        <v>0.6338853429281468</v>
       </c>
       <c r="J62" t="n">
-        <v>27.08481908655225</v>
+        <v>0.6338853429281468</v>
       </c>
       <c r="K62" t="n">
-        <v>7.360002593281099</v>
+        <v>1.125953234311396</v>
       </c>
     </row>
     <row r="63">
@@ -2869,31 +2869,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>51.54769953543048</v>
+        <v>9.786713679441151</v>
       </c>
       <c r="D63" t="n">
-        <v>51.54769953543048</v>
+        <v>9.786713679441151</v>
       </c>
       <c r="E63" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>11.54769953543048</v>
+        <v>0.2132863205588489</v>
       </c>
       <c r="H63" t="n">
-        <v>11.54769953543048</v>
+        <v>0.2132863205588489</v>
       </c>
       <c r="I63" t="n">
-        <v>133.3493645605814</v>
+        <v>0.04549105453753204</v>
       </c>
       <c r="J63" t="n">
-        <v>133.3493645605814</v>
+        <v>0.04549105453753204</v>
       </c>
       <c r="K63" t="n">
-        <v>16.33091329721528</v>
+        <v>0.3016324072029796</v>
       </c>
     </row>
     <row r="64">
@@ -2908,31 +2908,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>48.72715090313213</v>
+        <v>10.86002479498526</v>
       </c>
       <c r="D64" t="n">
-        <v>48.72715090313213</v>
+        <v>10.86002479498526</v>
       </c>
       <c r="E64" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>8.727150903132127</v>
+        <v>0.8600247949852573</v>
       </c>
       <c r="H64" t="n">
-        <v>8.727150903132127</v>
+        <v>0.8600247949852573</v>
       </c>
       <c r="I64" t="n">
-        <v>76.1631628860399</v>
+        <v>0.7396426479894338</v>
       </c>
       <c r="J64" t="n">
-        <v>76.1631628860399</v>
+        <v>0.7396426479894338</v>
       </c>
       <c r="K64" t="n">
-        <v>12.34205516808606</v>
+        <v>1.216258729045291</v>
       </c>
     </row>
     <row r="65">
@@ -2947,31 +2947,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>52.27401018224722</v>
+        <v>12.32149607801811</v>
       </c>
       <c r="D65" t="n">
-        <v>52.27401018224722</v>
+        <v>12.32149607801811</v>
       </c>
       <c r="E65" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>12.27401018224722</v>
+        <v>2.321496078018107</v>
       </c>
       <c r="H65" t="n">
-        <v>12.27401018224722</v>
+        <v>2.321496078018109</v>
       </c>
       <c r="I65" t="n">
-        <v>150.6513259539085</v>
+        <v>5.389344040253454</v>
       </c>
       <c r="J65" t="n">
-        <v>150.6513259539085</v>
+        <v>5.389344040253462</v>
       </c>
       <c r="K65" t="n">
-        <v>17.35807166443949</v>
+        <v>3.283091238529158</v>
       </c>
     </row>
     <row r="66">
@@ -2986,31 +2986,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>52.27401018224722</v>
+        <v>13.25563290334519</v>
       </c>
       <c r="D66" t="n">
-        <v>52.27401018224722</v>
+        <v>13.2556329033452</v>
       </c>
       <c r="E66" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>12.27401018224722</v>
+        <v>3.255632903345195</v>
       </c>
       <c r="H66" t="n">
-        <v>12.27401018224722</v>
+        <v>3.255632903345198</v>
       </c>
       <c r="I66" t="n">
-        <v>150.6513259539085</v>
+        <v>10.59914560134386</v>
       </c>
       <c r="J66" t="n">
-        <v>150.6513259539085</v>
+        <v>10.59914560134388</v>
       </c>
       <c r="K66" t="n">
-        <v>17.35807166443949</v>
+        <v>4.604160206018872</v>
       </c>
     </row>
     <row r="67">
@@ -4078,31 +4078,31 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>48.10138644408579</v>
+        <v>69.40621798896434</v>
       </c>
       <c r="D94" t="n">
-        <v>48.10138644408579</v>
+        <v>15.58927753632791</v>
       </c>
       <c r="E94" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G94" t="n">
-        <v>8.10138644408579</v>
+        <v>1.115782011035662</v>
       </c>
       <c r="H94" t="n">
-        <v>8.10138644408579</v>
+        <v>0.2317224636720887</v>
       </c>
       <c r="I94" t="n">
-        <v>65.632462316417</v>
+        <v>1.244969496150787</v>
       </c>
       <c r="J94" t="n">
-        <v>65.632462316417</v>
+        <v>0.05369530017026247</v>
       </c>
       <c r="K94" t="n">
-        <v>11.45709058325167</v>
+        <v>1.139589749129506</v>
       </c>
     </row>
     <row r="95">
@@ -4117,31 +4117,31 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>48.10138644408579</v>
+        <v>69.40621798896434</v>
       </c>
       <c r="D95" t="n">
-        <v>48.10138644408579</v>
+        <v>15.58927753632791</v>
       </c>
       <c r="E95" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G95" t="n">
-        <v>8.10138644408579</v>
+        <v>1.115782011035662</v>
       </c>
       <c r="H95" t="n">
-        <v>8.10138644408579</v>
+        <v>0.2317224636720887</v>
       </c>
       <c r="I95" t="n">
-        <v>65.632462316417</v>
+        <v>1.244969496150787</v>
       </c>
       <c r="J95" t="n">
-        <v>65.632462316417</v>
+        <v>0.05369530017026247</v>
       </c>
       <c r="K95" t="n">
-        <v>11.45709058325167</v>
+        <v>1.139589749129506</v>
       </c>
     </row>
     <row r="96">
@@ -4156,31 +4156,31 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>48.10138644408579</v>
+        <v>69.84348834668141</v>
       </c>
       <c r="D96" t="n">
-        <v>48.10138644408579</v>
+        <v>15.38105742952996</v>
       </c>
       <c r="E96" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G96" t="n">
-        <v>8.10138644408579</v>
+        <v>0.6785116533185942</v>
       </c>
       <c r="H96" t="n">
-        <v>8.10138644408579</v>
+        <v>0.439942570470043</v>
       </c>
       <c r="I96" t="n">
-        <v>65.632462316417</v>
+        <v>0.4603780636891321</v>
       </c>
       <c r="J96" t="n">
-        <v>65.632462316417</v>
+        <v>0.1935494653117888</v>
       </c>
       <c r="K96" t="n">
-        <v>11.45709058325167</v>
+        <v>0.8086578565752768</v>
       </c>
     </row>
     <row r="97">
@@ -4195,31 +4195,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>48.10138644408579</v>
+        <v>69.40621798896434</v>
       </c>
       <c r="D97" t="n">
-        <v>48.10138644408579</v>
+        <v>15.58927753632791</v>
       </c>
       <c r="E97" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G97" t="n">
-        <v>8.10138644408579</v>
+        <v>1.115782011035662</v>
       </c>
       <c r="H97" t="n">
-        <v>8.10138644408579</v>
+        <v>0.2317224636720887</v>
       </c>
       <c r="I97" t="n">
-        <v>65.632462316417</v>
+        <v>1.244969496150787</v>
       </c>
       <c r="J97" t="n">
-        <v>65.632462316417</v>
+        <v>0.05369530017026247</v>
       </c>
       <c r="K97" t="n">
-        <v>11.45709058325167</v>
+        <v>1.139589749129506</v>
       </c>
     </row>
     <row r="98">
@@ -4234,31 +4234,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>48.72715090313213</v>
+        <v>70.24342029573586</v>
       </c>
       <c r="D98" t="n">
-        <v>48.72715090313213</v>
+        <v>14.77230591963416</v>
       </c>
       <c r="E98" t="n">
-        <v>40</v>
+        <v>70.52200000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>40</v>
+        <v>15.821</v>
       </c>
       <c r="G98" t="n">
-        <v>8.727150903132127</v>
+        <v>0.2785797042641462</v>
       </c>
       <c r="H98" t="n">
-        <v>8.727150903132127</v>
+        <v>1.048694080365838</v>
       </c>
       <c r="I98" t="n">
-        <v>76.1631628860399</v>
+        <v>0.07760665162789918</v>
       </c>
       <c r="J98" t="n">
-        <v>76.1631628860399</v>
+        <v>1.09975927419435</v>
       </c>
       <c r="K98" t="n">
-        <v>12.34205516808606</v>
+        <v>1.085064940831769</v>
       </c>
     </row>
     <row r="99">
@@ -4276,28 +4276,28 @@
         <v>62.36381786288057</v>
       </c>
       <c r="D99" t="n">
-        <v>62.36381786288057</v>
+        <v>5.228921755900238</v>
       </c>
       <c r="E99" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F99" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G99" t="n">
-        <v>22.36381786288057</v>
+        <v>1.35718213711943</v>
       </c>
       <c r="H99" t="n">
-        <v>22.36381786288057</v>
+        <v>0.5959217559002381</v>
       </c>
       <c r="I99" t="n">
-        <v>500.1403494040959</v>
+        <v>1.841943353316064</v>
       </c>
       <c r="J99" t="n">
-        <v>500.1403494040959</v>
+        <v>0.355122739155223</v>
       </c>
       <c r="K99" t="n">
-        <v>31.62721452812738</v>
+        <v>1.482250347435037</v>
       </c>
     </row>
     <row r="100">
@@ -4315,28 +4315,28 @@
         <v>62.36381786288057</v>
       </c>
       <c r="D100" t="n">
-        <v>62.36381786288057</v>
+        <v>5.228921755900238</v>
       </c>
       <c r="E100" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F100" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G100" t="n">
-        <v>22.36381786288057</v>
+        <v>1.35718213711943</v>
       </c>
       <c r="H100" t="n">
-        <v>22.36381786288057</v>
+        <v>0.5959217559002381</v>
       </c>
       <c r="I100" t="n">
-        <v>500.1403494040959</v>
+        <v>1.841943353316064</v>
       </c>
       <c r="J100" t="n">
-        <v>500.1403494040959</v>
+        <v>0.355122739155223</v>
       </c>
       <c r="K100" t="n">
-        <v>31.62721452812738</v>
+        <v>1.482250347435037</v>
       </c>
     </row>
     <row r="101">
@@ -4354,28 +4354,28 @@
         <v>65.61340278115887</v>
       </c>
       <c r="D101" t="n">
-        <v>65.61340278115888</v>
+        <v>5.772238413346204</v>
       </c>
       <c r="E101" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F101" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G101" t="n">
-        <v>25.61340278115887</v>
+        <v>1.892402781158872</v>
       </c>
       <c r="H101" t="n">
-        <v>25.61340278115888</v>
+        <v>1.139238413346204</v>
       </c>
       <c r="I101" t="n">
-        <v>656.0464020298768</v>
+        <v>3.581188286137832</v>
       </c>
       <c r="J101" t="n">
-        <v>656.0464020298775</v>
+        <v>1.297864162443577</v>
       </c>
       <c r="K101" t="n">
-        <v>36.22282159163963</v>
+        <v>2.20885772483911</v>
       </c>
     </row>
     <row r="102">
@@ -4393,28 +4393,28 @@
         <v>65.61340278115887</v>
       </c>
       <c r="D102" t="n">
-        <v>65.61340278115888</v>
+        <v>5.772238413346204</v>
       </c>
       <c r="E102" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F102" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G102" t="n">
-        <v>25.61340278115887</v>
+        <v>1.892402781158872</v>
       </c>
       <c r="H102" t="n">
-        <v>25.61340278115888</v>
+        <v>1.139238413346204</v>
       </c>
       <c r="I102" t="n">
-        <v>656.0464020298768</v>
+        <v>3.581188286137832</v>
       </c>
       <c r="J102" t="n">
-        <v>656.0464020298775</v>
+        <v>1.297864162443577</v>
       </c>
       <c r="K102" t="n">
-        <v>36.22282159163963</v>
+        <v>2.20885772483911</v>
       </c>
     </row>
     <row r="103">
@@ -4432,28 +4432,28 @@
         <v>61.86374843559684</v>
       </c>
       <c r="D103" t="n">
-        <v>61.86374843559684</v>
+        <v>4.84451180199876</v>
       </c>
       <c r="E103" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G103" t="n">
-        <v>21.86374843559684</v>
+        <v>1.857251564403157</v>
       </c>
       <c r="H103" t="n">
-        <v>21.86374843559684</v>
+        <v>0.2115118019987596</v>
       </c>
       <c r="I103" t="n">
-        <v>478.0234956550632</v>
+        <v>3.449383373477974</v>
       </c>
       <c r="J103" t="n">
-        <v>478.0234956550632</v>
+        <v>0.0447372423847625</v>
       </c>
       <c r="K103" t="n">
-        <v>30.92000956193459</v>
+        <v>1.869256701435824</v>
       </c>
     </row>
     <row r="104">
@@ -4468,31 +4468,31 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>61.86374843559684</v>
+        <v>64.22148577180987</v>
       </c>
       <c r="D104" t="n">
-        <v>61.86374843559684</v>
+        <v>4.84451180199876</v>
       </c>
       <c r="E104" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F104" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G104" t="n">
-        <v>21.86374843559684</v>
+        <v>0.5004857718098705</v>
       </c>
       <c r="H104" t="n">
-        <v>21.86374843559684</v>
+        <v>0.2115118019987596</v>
       </c>
       <c r="I104" t="n">
-        <v>478.0234956550632</v>
+        <v>0.2504860077841218</v>
       </c>
       <c r="J104" t="n">
-        <v>478.0234956550632</v>
+        <v>0.0447372423847625</v>
       </c>
       <c r="K104" t="n">
-        <v>30.92000956193459</v>
+        <v>0.5433445041305601</v>
       </c>
     </row>
     <row r="105">
@@ -4507,31 +4507,31 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>56.83537143895128</v>
+        <v>65.25071230149479</v>
       </c>
       <c r="D105" t="n">
-        <v>56.83537143895128</v>
+        <v>4.832990621412938</v>
       </c>
       <c r="E105" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F105" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G105" t="n">
-        <v>16.83537143895128</v>
+        <v>1.52971230149479</v>
       </c>
       <c r="H105" t="n">
-        <v>16.83537143895128</v>
+        <v>0.1999906214129377</v>
       </c>
       <c r="I105" t="n">
-        <v>283.4297314874566</v>
+        <v>2.340019725344487</v>
       </c>
       <c r="J105" t="n">
-        <v>283.4297314874566</v>
+        <v>0.03999624865313296</v>
       </c>
       <c r="K105" t="n">
-        <v>23.80881061655355</v>
+        <v>1.542730039247833</v>
       </c>
     </row>
     <row r="106">
@@ -4546,31 +4546,31 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>56.83537143895128</v>
+        <v>65.25071230149479</v>
       </c>
       <c r="D106" t="n">
-        <v>56.83537143895128</v>
+        <v>4.832990621412938</v>
       </c>
       <c r="E106" t="n">
-        <v>40</v>
+        <v>63.721</v>
       </c>
       <c r="F106" t="n">
-        <v>40</v>
+        <v>4.633</v>
       </c>
       <c r="G106" t="n">
-        <v>16.83537143895128</v>
+        <v>1.52971230149479</v>
       </c>
       <c r="H106" t="n">
-        <v>16.83537143895128</v>
+        <v>0.1999906214129377</v>
       </c>
       <c r="I106" t="n">
-        <v>283.4297314874566</v>
+        <v>2.340019725344487</v>
       </c>
       <c r="J106" t="n">
-        <v>283.4297314874566</v>
+        <v>0.03999624865313296</v>
       </c>
       <c r="K106" t="n">
-        <v>23.80881061655355</v>
+        <v>1.542730039247833</v>
       </c>
     </row>
     <row r="107">
@@ -4585,31 +4585,31 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>53.36392729052783</v>
+        <v>7.978310017486672</v>
       </c>
       <c r="D107" t="n">
-        <v>53.36392729052783</v>
+        <v>7.978310017486665</v>
       </c>
       <c r="E107" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>13.36392729052783</v>
+        <v>2.021689982513328</v>
       </c>
       <c r="H107" t="n">
-        <v>13.36392729052783</v>
+        <v>2.021689982513335</v>
       </c>
       <c r="I107" t="n">
-        <v>178.5945526265146</v>
+        <v>4.08723038539474</v>
       </c>
       <c r="J107" t="n">
-        <v>178.5945526265144</v>
+        <v>4.087230385394768</v>
       </c>
       <c r="K107" t="n">
-        <v>18.89944722083239</v>
+        <v>2.859101392184179</v>
       </c>
     </row>
     <row r="108">
@@ -4624,31 +4624,31 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>45.20430774325964</v>
+        <v>10.79616916728051</v>
       </c>
       <c r="D108" t="n">
-        <v>45.20430774325964</v>
+        <v>10.79616916728051</v>
       </c>
       <c r="E108" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>5.204307743259641</v>
+        <v>0.7961691672805138</v>
       </c>
       <c r="H108" t="n">
-        <v>5.204307743259641</v>
+        <v>0.7961691672805138</v>
       </c>
       <c r="I108" t="n">
-        <v>27.08481908655225</v>
+        <v>0.6338853429281468</v>
       </c>
       <c r="J108" t="n">
-        <v>27.08481908655225</v>
+        <v>0.6338853429281468</v>
       </c>
       <c r="K108" t="n">
-        <v>7.360002593281099</v>
+        <v>1.125953234311396</v>
       </c>
     </row>
     <row r="109">
@@ -4663,31 +4663,31 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>51.54769953543048</v>
+        <v>9.786713679441151</v>
       </c>
       <c r="D109" t="n">
-        <v>51.54769953543048</v>
+        <v>9.786713679441151</v>
       </c>
       <c r="E109" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>11.54769953543048</v>
+        <v>0.2132863205588489</v>
       </c>
       <c r="H109" t="n">
-        <v>11.54769953543048</v>
+        <v>0.2132863205588489</v>
       </c>
       <c r="I109" t="n">
-        <v>133.3493645605814</v>
+        <v>0.04549105453753204</v>
       </c>
       <c r="J109" t="n">
-        <v>133.3493645605814</v>
+        <v>0.04549105453753204</v>
       </c>
       <c r="K109" t="n">
-        <v>16.33091329721528</v>
+        <v>0.3016324072029796</v>
       </c>
     </row>
     <row r="110">
@@ -4702,31 +4702,31 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>48.72715090313213</v>
+        <v>10.86002479498526</v>
       </c>
       <c r="D110" t="n">
-        <v>48.72715090313213</v>
+        <v>10.86002479498526</v>
       </c>
       <c r="E110" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>8.727150903132127</v>
+        <v>0.8600247949852573</v>
       </c>
       <c r="H110" t="n">
-        <v>8.727150903132127</v>
+        <v>0.8600247949852573</v>
       </c>
       <c r="I110" t="n">
-        <v>76.1631628860399</v>
+        <v>0.7396426479894338</v>
       </c>
       <c r="J110" t="n">
-        <v>76.1631628860399</v>
+        <v>0.7396426479894338</v>
       </c>
       <c r="K110" t="n">
-        <v>12.34205516808606</v>
+        <v>1.216258729045291</v>
       </c>
     </row>
     <row r="111">
@@ -4741,31 +4741,31 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>52.27401018224722</v>
+        <v>12.32149607801811</v>
       </c>
       <c r="D111" t="n">
-        <v>52.27401018224722</v>
+        <v>12.32149607801811</v>
       </c>
       <c r="E111" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>12.27401018224722</v>
+        <v>2.321496078018107</v>
       </c>
       <c r="H111" t="n">
-        <v>12.27401018224722</v>
+        <v>2.321496078018109</v>
       </c>
       <c r="I111" t="n">
-        <v>150.6513259539085</v>
+        <v>5.389344040253454</v>
       </c>
       <c r="J111" t="n">
-        <v>150.6513259539085</v>
+        <v>5.389344040253462</v>
       </c>
       <c r="K111" t="n">
-        <v>17.35807166443949</v>
+        <v>3.283091238529158</v>
       </c>
     </row>
     <row r="112">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>52.27401018224722</v>
+        <v>13.25563290334519</v>
       </c>
       <c r="D112" t="n">
-        <v>52.27401018224722</v>
+        <v>13.2556329033452</v>
       </c>
       <c r="E112" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F112" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>12.27401018224722</v>
+        <v>3.255632903345195</v>
       </c>
       <c r="H112" t="n">
-        <v>12.27401018224722</v>
+        <v>3.255632903345198</v>
       </c>
       <c r="I112" t="n">
-        <v>150.6513259539085</v>
+        <v>10.59914560134386</v>
       </c>
       <c r="J112" t="n">
-        <v>150.6513259539085</v>
+        <v>10.59914560134388</v>
       </c>
       <c r="K112" t="n">
-        <v>17.35807166443949</v>
+        <v>4.604160206018872</v>
       </c>
     </row>
     <row r="113">
